--- a/memoria/4pasillo/4pasillo.xlsx
+++ b/memoria/4pasillo/4pasillo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\4pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05DD732-0D01-47D4-BA09-32830E227517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2C38-2077-4AA0-AFFF-EE09AA3F2C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="570" windowWidth="20940" windowHeight="10650" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
-  <si>
-    <t>costo_por_agente</t>
-  </si>
-  <si>
-    <t>completion_time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -64,9 +58,6 @@
   </si>
   <si>
     <t>STDEV</t>
-  </si>
-  <si>
-    <t>tiempo_en_acabar (success_agents)</t>
   </si>
   <si>
     <t>agentes_en_goal</t>
@@ -124,6 +115,21 @@
   </si>
   <si>
     <t>190</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>sum_of_costs</t>
+  </si>
+  <si>
+    <t>makespan</t>
+  </si>
+  <si>
+    <t>completion_time</t>
+  </si>
+  <si>
+    <t>tiempo_en_acabar</t>
   </si>
 </sst>
 </file>
@@ -217,11 +223,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> c</a:t>
+              <a:t> sum of costs </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>osto desplazamiento MARL</a:t>
+              <a:t>MARL</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
@@ -292,6 +298,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.19435791725576759</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.47391982444291142</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0922708290807441</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.379966484671113</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4236955254321861</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5646065799427029</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.4750455278643404</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.4261106231982854</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.1640675380249093</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.3878253072796376</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.8524578454695328</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.6918310047583063</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11.667105626427871</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.3779902374046618</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10.47412205283945</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.938507344849951</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>12.14749812622515</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18.380561758012821</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16.597077772358531</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10.05235847948132</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.19435791725576759</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.47391982444291142</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0922708290807441</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.379966484671113</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4236955254321861</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5646065799427029</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.4750455278643404</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.4261106231982854</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.1640675380249093</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.3878253072796376</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.8524578454695328</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.6918310047583063</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11.667105626427871</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.3779902374046618</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10.47412205283945</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.938507344849951</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>12.14749812622515</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18.380561758012821</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16.597077772358531</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10.05235847948132</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -367,64 +530,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.76</c:v>
+                  <c:v>30.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.5275</c:v>
+                  <c:v>24.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.855</c:v>
+                  <c:v>29.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.171250000000001</c:v>
+                  <c:v>30.591249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.094000000000001</c:v>
+                  <c:v>31.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.095833333333331</c:v>
+                  <c:v>26.619166666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.246428571428581</c:v>
+                  <c:v>57.341428571428573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.480625000000003</c:v>
+                  <c:v>65.791875000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.348888888888887</c:v>
+                  <c:v>67.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.695000000000007</c:v>
+                  <c:v>70.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.604999999999997</c:v>
+                  <c:v>66.369090909090914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.767916666666657</c:v>
+                  <c:v>82.610416666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.369230769230761</c:v>
+                  <c:v>106.0857692307693</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.847142857142863</c:v>
+                  <c:v>90.408928571428575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.600333333333332</c:v>
+                  <c:v>91.795000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.704062500000013</c:v>
+                  <c:v>160.11296874999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.158529411764697</c:v>
+                  <c:v>120.7623529411765</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.381944444444429</c:v>
+                  <c:v>137.25416666666669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.181315789473693</c:v>
+                  <c:v>143.82526315789471</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73.496499999999997</c:v>
+                  <c:v>107.52800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,7 +604,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -462,6 +625,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$J$3:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>23.327751177513871</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.034063544529189</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.71761789453857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3362659737430462</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0081926343387559</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.2325759972194934</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3314820781648313</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.0349354141383742</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.6262996852414604</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.2580088950118453</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>61.631361220556869</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>47.707516255284823</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>61.004841698130043</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>59.184305372484268</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>39.613582092790118</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>98.055387793292468</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>33.684412984556907</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>52.110211433354003</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>47.154079611741658</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>72.080161108895794</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$J$3:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>23.327751177513871</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.034063544529189</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.71761789453857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3362659737430462</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0081926343387559</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.2325759972194934</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3314820781648313</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.0349354141383742</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.6262996852414604</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.2580088950118453</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>61.631361220556869</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>47.707516255284823</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>61.004841698130043</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>59.184305372484268</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>39.613582092790118</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>98.055387793292468</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>33.684412984556907</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>52.110211433354003</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>47.154079611741658</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>72.080161108895794</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -532,69 +852,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$3:$G$22</c:f>
+              <c:f>Hoja1!$I$3:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>50.875</c:v>
+                  <c:v>91.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.657500000000013</c:v>
+                  <c:v>70.032499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.833333333333329</c:v>
+                  <c:v>71.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.448749999999997</c:v>
+                  <c:v>88.408749999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.860999999999997</c:v>
+                  <c:v>60.405999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.114166666666662</c:v>
+                  <c:v>53.75333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.746428571428567</c:v>
+                  <c:v>82.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.698124999999997</c:v>
+                  <c:v>101.674375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.007222222222218</c:v>
+                  <c:v>89.603333333333325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.338999999999999</c:v>
+                  <c:v>76.300500000000014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.109090909090909</c:v>
+                  <c:v>106.0206818181818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.095833333333339</c:v>
+                  <c:v>105.92020833333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.140384615384619</c:v>
+                  <c:v>127.4221153846154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.398571428571429</c:v>
+                  <c:v>108.52892857142859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.043666666666667</c:v>
+                  <c:v>95.617333333333335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.549374999999998</c:v>
+                  <c:v>157.69593750000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.153823529411767</c:v>
+                  <c:v>99.985588235294117</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.33</c:v>
+                  <c:v>120.8879166666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.187105263157903</c:v>
+                  <c:v>115.38552631578951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.084000000000003</c:v>
+                  <c:v>122.51537500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$2</c:f>
+              <c:f>Hoja1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -624,7 +944,7 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
@@ -705,69 +1025,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$22</c:f>
+              <c:f>Hoja1!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.4</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.8</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.93333333333333</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.175000000000001</c:v>
+                  <c:v>20.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.66</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.95</c:v>
+                  <c:v>21.366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.38571428571429</c:v>
+                  <c:v>23.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.925000000000001</c:v>
+                  <c:v>25.087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.966666666666669</c:v>
+                  <c:v>23.62222222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.94</c:v>
+                  <c:v>24.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.40909090909091</c:v>
+                  <c:v>24.618181818181821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.983333333333331</c:v>
+                  <c:v>24.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.91538461538461</c:v>
+                  <c:v>24.838461538461541</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.06428571428571</c:v>
+                  <c:v>24.25714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.77333333333333</c:v>
+                  <c:v>23.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.831250000000001</c:v>
+                  <c:v>26.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.794117647058819</c:v>
+                  <c:v>23.764705882352938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.233333333333331</c:v>
+                  <c:v>23.977777777777781</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.068421052631582</c:v>
+                  <c:v>24.147368421052629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.965</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1396,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>Avg costo tiempo</a:t>
+              <a:t>Avg makespan</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
@@ -1150,6 +1470,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.25542856144135467</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.9981201080030403</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6372944698390679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.4426115838125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.059235120055205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.404255889283621</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17.841585362287621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15.50148150366905</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>14.95716513544224</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16.460012589226661</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>13.69652323433497</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>14.95936855749229</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>18.92700670479234</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>15.703023836865739</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>17.286502454548501</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>25.254303469903899</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.21147094620698</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28.526312565153159</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>25.944771952600341</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>15.569599978804851</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.25542856144135467</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.9981201080030403</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6372944698390679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.4426115838125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.059235120055205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.404255889283621</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17.841585362287621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15.50148150366905</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>14.95716513544224</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16.460012589226661</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>13.69652323433497</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>14.95936855749229</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>18.92700670479234</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>15.703023836865739</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>17.286502454548501</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>25.254303469903899</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.21147094620698</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28.526312565153159</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>25.944771952600341</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>15.569599978804851</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -1220,69 +1697,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$22</c:f>
+              <c:f>Hoja1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.982500000000002</c:v>
+                  <c:v>31.302499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.053750000000001</c:v>
+                  <c:v>25.1525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.528333333333329</c:v>
+                  <c:v>36.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.780625000000001</c:v>
+                  <c:v>41.52375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.382000000000001</c:v>
+                  <c:v>41.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.788750000000007</c:v>
+                  <c:v>32.374583333333327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.563928571428583</c:v>
+                  <c:v>90.386071428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.8984375</c:v>
+                  <c:v>103.37718750000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.956944444444453</c:v>
+                  <c:v>106.1622222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.602250000000012</c:v>
+                  <c:v>110.28825000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.88340909090909</c:v>
+                  <c:v>103.0465909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.304375000000007</c:v>
+                  <c:v>129.36583333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.265384615384619</c:v>
+                  <c:v>166.37326923076921</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.481428571428566</c:v>
+                  <c:v>141.5994642857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78.357833333333332</c:v>
+                  <c:v>143.30466666666669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.799374999999998</c:v>
+                  <c:v>249.09062499999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99.564117647058822</c:v>
+                  <c:v>188.90294117647059</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108.4469444444444</c:v>
+                  <c:v>213.23805555555549</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.5718421052632</c:v>
+                  <c:v>224.5667105263158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.156875</c:v>
+                  <c:v>167.322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,10 +1786,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1320,6 +1798,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$L$3:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>23.327751177513871</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.02309271021047</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.70626345105207</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3338399890081467</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.018378997318397</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.244915075033278</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3562188333271594</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.0548149177603712</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.6637104489356371</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.36699450423286</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>89.758543183254503</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>64.068736977895142</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>85.313685592472808</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>79.898867349885776</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>68.829472014174272</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132.7864576232268</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48.167479372680972</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>89.944275228784448</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>80.988743446726218</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>106.36452961036581</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$L$3:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>23.327751177513871</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.02309271021047</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.70626345105207</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3338399890081467</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.018378997318397</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.244915075033278</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3562188333271594</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.0548149177603712</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.6637104489356371</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.36699450423286</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>89.758543183254503</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>64.068736977895142</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>85.313685592472808</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>79.898867349885776</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>68.829472014174272</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132.7864576232268</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48.167479372680972</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>89.944275228784448</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>80.988743446726218</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>106.36452961036581</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -1390,69 +2025,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$22</c:f>
+              <c:f>Hoja1!$K$3:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>51.892499999999998</c:v>
+                  <c:v>92.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.681249999999999</c:v>
+                  <c:v>71.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.899166666666673</c:v>
+                  <c:v>72.335833333333341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.523749999999993</c:v>
+                  <c:v>89.434375000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.93</c:v>
+                  <c:v>61.522500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.262083333333337</c:v>
+                  <c:v>54.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.96892857142857</c:v>
+                  <c:v>84.139285714285705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.060625000000002</c:v>
+                  <c:v>103.076875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.422222222222217</c:v>
+                  <c:v>91.162222222222226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.764750000000006</c:v>
+                  <c:v>77.968000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.570681818181818</c:v>
+                  <c:v>116.1409090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.919375000000002</c:v>
+                  <c:v>110.371875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.301346153846147</c:v>
+                  <c:v>135.62442307692311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.054999999999993</c:v>
+                  <c:v>116.47125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53.282166666666669</c:v>
+                  <c:v>104.2848333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.143124999999998</c:v>
+                  <c:v>172.82499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.163235294117655</c:v>
+                  <c:v>105.8326470588235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59.727499999999999</c:v>
+                  <c:v>136.57458333333341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.251447368421047</c:v>
+                  <c:v>127.7669736842105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.964500000000001</c:v>
+                  <c:v>139.33837500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,19 +2104,21 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$2</c:f>
+              <c:f>Hoja1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>valores_ideales</c:v>
+                  <c:v>makespan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -1561,69 +2198,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$3:$I$22</c:f>
+              <c:f>Hoja1!$M$3:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.4</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.8</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.93333333333333</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.175000000000001</c:v>
+                  <c:v>20.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.66</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.95</c:v>
+                  <c:v>21.366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.38571428571429</c:v>
+                  <c:v>23.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.925000000000001</c:v>
+                  <c:v>25.087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.966666666666669</c:v>
+                  <c:v>23.62222222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.94</c:v>
+                  <c:v>24.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.40909090909091</c:v>
+                  <c:v>24.618181818181821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.983333333333331</c:v>
+                  <c:v>24.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.91538461538461</c:v>
+                  <c:v>24.838461538461541</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.06428571428571</c:v>
+                  <c:v>24.25714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.77333333333333</c:v>
+                  <c:v>23.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.831250000000001</c:v>
+                  <c:v>26.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.794117647058819</c:v>
+                  <c:v>23.764705882352938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.233333333333331</c:v>
+                  <c:v>23.977777777777781</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.068421052631582</c:v>
+                  <c:v>24.147368421052629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.965</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,6 +2635,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$D$27:$D$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3722935941307801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13.951725378090018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.123666051964122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.370852704377434</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>19.710582215704637</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>55.236809540424495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>52.229743957309914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48.453513275282106</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>60.361257527129268</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.134318187314307</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>56.677987179938128</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>70.053807158754097</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>72.11038546775147</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>66.852976843372602</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>85.44290341268713</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>72.837010703385673</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>105.3306119820485</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>113.16970465315359</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>65.487085240781198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$D$27:$D$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3722935941307801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13.951725378090018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.123666051964122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.370852704377434</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>19.710582215704637</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>55.236809540424495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>52.229743957309914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48.453513275282106</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>60.361257527129268</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.134318187314307</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>56.677987179938128</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>70.053807158754097</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>72.11038546775147</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>66.852976843372602</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>85.44290341268713</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>72.837010703385673</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>105.3306119820485</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>113.16970465315359</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>65.487085240781198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -2073,64 +2867,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>39.024999999999999</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.225000000000001</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.85</c:v>
+                  <c:v>78.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.075000000000003</c:v>
+                  <c:v>118.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.6</c:v>
+                  <c:v>121.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.2</c:v>
+                  <c:v>100.575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.35</c:v>
+                  <c:v>275.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.02500000000001</c:v>
+                  <c:v>318.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>172.72499999999999</c:v>
+                  <c:v>334.52499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.72499999999999</c:v>
+                  <c:v>344.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.25</c:v>
+                  <c:v>346.22500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219.42500000000001</c:v>
+                  <c:v>416.625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.60000000000002</c:v>
+                  <c:v>507.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>255.72499999999999</c:v>
+                  <c:v>496.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.6</c:v>
+                  <c:v>503.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>269.42500000000001</c:v>
+                  <c:v>721.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>315.55</c:v>
+                  <c:v>644.27499999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>380.4</c:v>
+                  <c:v>718.97500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>351.32499999999999</c:v>
+                  <c:v>761.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>381.6</c:v>
+                  <c:v>626.17499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,7 +2941,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2168,6 +2962,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$I$27:$I$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>101.30875629758808</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>103.20400509024181</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>90.872917744986978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.039672322855353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>97.230838201857992</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>94.34273306435044</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>67.336811283622154</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>84.328535639348871</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>88.49735618244226</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>82.545651704887561</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>158.15664905727371</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>108.77284905852059</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>131.31644838094203</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>163.26234197662453</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>166.07436548665439</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>185.49179088892177</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>107.56211979774582</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>165.68149084993297</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146.89189946421541</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>208.5606349758709</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$I$27:$I$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>101.30875629758808</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>103.20400509024181</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>90.872917744986978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.039672322855353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>97.230838201857992</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>94.34273306435044</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>67.336811283622154</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>84.328535639348871</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>88.49735618244226</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>82.545651704887561</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>158.15664905727371</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>108.77284905852059</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>131.31644838094203</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>163.26234197662453</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>166.07436548665439</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>185.49179088892177</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>107.56211979774582</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>165.68149084993297</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146.89189946421541</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>208.5606349758709</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -2243,64 +3194,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>154.72499999999999</c:v>
+                  <c:v>335.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.5</c:v>
+                  <c:v>489.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.35</c:v>
+                  <c:v>439.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231.4</c:v>
+                  <c:v>506.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.5</c:v>
+                  <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272.72500000000002</c:v>
+                  <c:v>545.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.625</c:v>
+                  <c:v>544.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.35</c:v>
+                  <c:v>571.67499999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.97499999999999</c:v>
+                  <c:v>601.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.85</c:v>
+                  <c:v>590.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>221.875</c:v>
+                  <c:v>558.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250.95</c:v>
+                  <c:v>588.17499999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258.07499999999999</c:v>
+                  <c:v>567.875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>263.5</c:v>
+                  <c:v>564.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>257.14999999999998</c:v>
+                  <c:v>619.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>293.32499999999999</c:v>
+                  <c:v>581.22500000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>313.125</c:v>
+                  <c:v>621.07500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.60000000000002</c:v>
+                  <c:v>604.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>297.14999999999998</c:v>
+                  <c:v>650.27499999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>308.22500000000002</c:v>
+                  <c:v>590.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,6 +3630,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$D$76:$D$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$D$76:$D$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$23</c:f>
@@ -2799,7 +3907,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>159.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>170</c:v>
@@ -2828,7 +3936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2840,7 +3948,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2849,6 +3957,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12.272441505781199</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.4868329805051381</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>14.214835154216143</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14.284651975154384</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.912302819503735</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>27.272121108259789</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10.435516278555646</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21.015928025410467</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19.607543681725328</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>27.342274960214954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12.272441505781199</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.4868329805051381</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>14.214835154216143</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14.284651975154384</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.912302819503735</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>27.272121108259789</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10.435516278555646</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21.015928025410467</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19.607543681725328</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>27.342274960214954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$23</c:f>
@@ -2954,34 +4219,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>106.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>126.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>147.125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>151.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168.375</c:v>
+                  <c:v>168.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>174.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188.97499999999999</c:v>
+                  <c:v>185.57499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>189.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,6 +4616,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$D$51:$D$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3722935941307801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13.951725378090018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.123666051964122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.370852704377434</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>19.710582215704637</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>55.236809540424495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>52.229743957309914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48.453513275282106</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>60.361257527129268</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.134318187314307</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>56.677987179938128</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>70.053807158754097</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>72.11038546775147</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>66.852976843372602</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>95.696873860469594</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>72.837010703385673</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>105.3306119820485</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>113.16970465315359</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>65.487085240781198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$D$51:$D$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3722935941307801</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13.951725378090018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.123666051964122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.370852704377434</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>19.710582215704637</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>55.236809540424495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>52.229743957309914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48.453513275282106</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>60.361257527129268</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.134318187314307</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>56.677987179938128</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>70.053807158754097</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>72.11038546775147</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>66.852976843372602</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>95.696873860469594</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>72.837010703385673</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>105.3306119820485</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>113.16970465315359</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>65.487085240781198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -3426,64 +4848,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>39.024999999999999</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.225000000000001</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.85</c:v>
+                  <c:v>78.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.075000000000003</c:v>
+                  <c:v>118.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.6</c:v>
+                  <c:v>121.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.2</c:v>
+                  <c:v>100.575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.35</c:v>
+                  <c:v>275.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.02500000000001</c:v>
+                  <c:v>318.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>172.72499999999999</c:v>
+                  <c:v>334.52499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.72499999999999</c:v>
+                  <c:v>344.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.25</c:v>
+                  <c:v>346.22500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219.42500000000001</c:v>
+                  <c:v>416.625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.60000000000002</c:v>
+                  <c:v>507.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>255.72499999999999</c:v>
+                  <c:v>496.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.6</c:v>
+                  <c:v>503.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>269.42500000000001</c:v>
+                  <c:v>729.82500000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>315.55</c:v>
+                  <c:v>644.27499999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>380.4</c:v>
+                  <c:v>718.97500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>351.32499999999999</c:v>
+                  <c:v>761.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>381.6</c:v>
+                  <c:v>626.17499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,7 +4922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3521,6 +4943,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$I$51:$I$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>101.30875629758808</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>103.20400509024181</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>90.872917744986978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.039672322855353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>97.230838201857992</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>94.34273306435044</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>67.336811283622154</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>84.328535639348871</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>88.49735618244226</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>82.545651704887561</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>122.00251153362717</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>89.775071492806134</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>107.82340738210405</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>127.58681056742985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127.31511481964121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>128.28851448480458</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>88.147570759319507</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>118.13894470668973</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>99.015587350990046</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>125.18769497981395</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$I$51:$I$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>101.30875629758808</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>103.20400509024181</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>90.872917744986978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>83.039672322855353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>97.230838201857992</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>94.34273306435044</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>67.336811283622154</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>84.328535639348871</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>88.49735618244226</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>82.545651704887561</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>122.00251153362717</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>89.775071492806134</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>107.82340738210405</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>127.58681056742985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127.31511481964121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>128.28851448480458</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>88.147570759319507</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>118.13894470668973</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>99.015587350990046</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>125.18769497981395</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$3:$A$22</c:f>
@@ -3596,64 +5175,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>154.72499999999999</c:v>
+                  <c:v>335.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.5</c:v>
+                  <c:v>489.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.35</c:v>
+                  <c:v>439.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231.4</c:v>
+                  <c:v>506.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.5</c:v>
+                  <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272.72500000000002</c:v>
+                  <c:v>545.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.625</c:v>
+                  <c:v>544.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.35</c:v>
+                  <c:v>571.67499999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.97499999999999</c:v>
+                  <c:v>601.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.85</c:v>
+                  <c:v>590.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>221.875</c:v>
+                  <c:v>629.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250.95</c:v>
+                  <c:v>612.02499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258.07499999999999</c:v>
+                  <c:v>614.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>263.5</c:v>
+                  <c:v>635.375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>257.14999999999998</c:v>
+                  <c:v>667.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>293.32499999999999</c:v>
+                  <c:v>674.42499999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>319.67500000000001</c:v>
+                  <c:v>643.57500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.60000000000002</c:v>
+                  <c:v>673.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>308.60000000000002</c:v>
+                  <c:v>695.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>308.22500000000002</c:v>
+                  <c:v>707.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6710,13 +8289,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -6746,13 +8325,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -6898,16 +8477,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>456736</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>389501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6922,7 +8501,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15912353" y="2476500"/>
+          <a:off x="19165150" y="3139966"/>
           <a:ext cx="1456765" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7009,13 +8588,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>756957</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>644899</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>173692</xdr:rowOff>
@@ -7684,10 +9263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,1657 +9275,1909 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>30.835000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.19435791725576759</v>
+      </c>
+      <c r="D3">
+        <v>31.302499999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.25542856144135467</v>
+      </c>
+      <c r="F3">
+        <v>30.2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>91.655000000000001</v>
+      </c>
+      <c r="J3">
+        <v>23.327751177513871</v>
+      </c>
+      <c r="K3">
+        <v>92.655000000000001</v>
+      </c>
+      <c r="L3">
+        <v>23.327751177513871</v>
+      </c>
+      <c r="M3">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4">
+        <v>24.13</v>
+      </c>
+      <c r="C4">
+        <v>0.47391982444291142</v>
+      </c>
+      <c r="D4">
+        <v>25.1525</v>
+      </c>
+      <c r="E4">
+        <v>0.9981201080030403</v>
+      </c>
+      <c r="F4">
+        <v>23.2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>70.032499999999999</v>
+      </c>
+      <c r="J4">
+        <v>16.034063544529189</v>
+      </c>
+      <c r="K4">
+        <v>71.075000000000003</v>
+      </c>
+      <c r="L4">
+        <v>16.02309271021047</v>
+      </c>
+      <c r="M4">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>29.875</v>
+      </c>
+      <c r="C5">
+        <v>2.0922708290807441</v>
+      </c>
+      <c r="D5">
+        <v>36.833333333333329</v>
+      </c>
+      <c r="E5">
+        <v>4.6372944698390679</v>
+      </c>
+      <c r="F5">
+        <v>23.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>71.2</v>
+      </c>
+      <c r="J5">
+        <v>10.71761789453857</v>
+      </c>
+      <c r="K5">
+        <v>72.335833333333341</v>
+      </c>
+      <c r="L5">
+        <v>10.70626345105207</v>
+      </c>
+      <c r="M5">
+        <v>23.8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30.591249999999999</v>
+      </c>
+      <c r="C6">
+        <v>3.379966484671113</v>
+      </c>
+      <c r="D6">
+        <v>41.52375</v>
+      </c>
+      <c r="E6">
+        <v>7.4426115838125</v>
+      </c>
+      <c r="F6">
+        <v>20.675000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>88.408749999999998</v>
+      </c>
+      <c r="J6">
+        <v>7.3362659737430462</v>
+      </c>
+      <c r="K6">
+        <v>89.434375000000003</v>
+      </c>
+      <c r="L6">
+        <v>7.3338399890081467</v>
+      </c>
+      <c r="M6">
+        <v>20.675000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>31.91</v>
+      </c>
+      <c r="C7">
+        <v>2.4236955254321861</v>
+      </c>
+      <c r="D7">
+        <v>41.94</v>
+      </c>
+      <c r="E7">
+        <v>5.059235120055205</v>
+      </c>
+      <c r="F7">
+        <v>22.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>60.405999999999992</v>
+      </c>
+      <c r="J7">
+        <v>7.0081926343387559</v>
+      </c>
+      <c r="K7">
+        <v>61.522500000000001</v>
+      </c>
+      <c r="L7">
+        <v>7.018378997318397</v>
+      </c>
+      <c r="M7">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>26.619166666666661</v>
+      </c>
+      <c r="C8">
+        <v>1.5646065799427029</v>
+      </c>
+      <c r="D8">
+        <v>32.374583333333327</v>
+      </c>
+      <c r="E8">
+        <v>3.404255889283621</v>
+      </c>
+      <c r="F8">
+        <v>21.366666666666671</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>53.75333333333333</v>
+      </c>
+      <c r="J8">
+        <v>7.2325759972194934</v>
+      </c>
+      <c r="K8">
+        <v>54.83</v>
+      </c>
+      <c r="L8">
+        <v>7.244915075033278</v>
+      </c>
+      <c r="M8">
+        <v>21.366666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>57.341428571428573</v>
+      </c>
+      <c r="C9">
+        <v>9.4750455278643404</v>
+      </c>
+      <c r="D9">
+        <v>90.386071428571427</v>
+      </c>
+      <c r="E9">
+        <v>17.841585362287621</v>
+      </c>
+      <c r="F9">
+        <v>23.714285714285719</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>82.76</v>
+      </c>
+      <c r="J9">
+        <v>6.3314820781648313</v>
+      </c>
+      <c r="K9">
+        <v>84.139285714285705</v>
+      </c>
+      <c r="L9">
+        <v>6.3562188333271594</v>
+      </c>
+      <c r="M9">
+        <v>23.714285714285719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>65.791875000000005</v>
+      </c>
+      <c r="C10">
+        <v>8.4261106231982854</v>
+      </c>
+      <c r="D10">
+        <v>103.37718750000001</v>
+      </c>
+      <c r="E10">
+        <v>15.50148150366905</v>
+      </c>
+      <c r="F10">
+        <v>25.087499999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>101.674375</v>
+      </c>
+      <c r="J10">
+        <v>8.0349354141383742</v>
+      </c>
+      <c r="K10">
+        <v>103.076875</v>
+      </c>
+      <c r="L10">
+        <v>8.0548149177603712</v>
+      </c>
+      <c r="M10">
+        <v>25.087499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="C11">
+        <v>8.1640675380249093</v>
+      </c>
+      <c r="D11">
+        <v>106.1622222222222</v>
+      </c>
+      <c r="E11">
+        <v>14.95716513544224</v>
+      </c>
+      <c r="F11">
+        <v>23.62222222222222</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>89.603333333333325</v>
+      </c>
+      <c r="J11">
+        <v>5.6262996852414604</v>
+      </c>
+      <c r="K11">
+        <v>91.162222222222226</v>
+      </c>
+      <c r="L11">
+        <v>5.6637104489356371</v>
+      </c>
+      <c r="M11">
+        <v>23.62222222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>70.353999999999999</v>
+      </c>
+      <c r="C12">
+        <v>9.3878253072796376</v>
+      </c>
+      <c r="D12">
+        <v>110.28825000000001</v>
+      </c>
+      <c r="E12">
+        <v>16.460012589226661</v>
+      </c>
+      <c r="F12">
+        <v>24.73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>76.300500000000014</v>
+      </c>
+      <c r="J12">
+        <v>4.2580088950118453</v>
+      </c>
+      <c r="K12">
+        <v>77.968000000000004</v>
+      </c>
+      <c r="L12">
+        <v>4.36699450423286</v>
+      </c>
+      <c r="M12">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>66.369090909090914</v>
+      </c>
+      <c r="C13">
+        <v>7.8524578454695328</v>
+      </c>
+      <c r="D13">
+        <v>103.0465909090909</v>
+      </c>
+      <c r="E13">
+        <v>13.69652323433497</v>
+      </c>
+      <c r="F13">
+        <v>24.618181818181821</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>106.0206818181818</v>
+      </c>
+      <c r="J13">
+        <v>61.631361220556869</v>
+      </c>
+      <c r="K13">
+        <v>116.1409090909091</v>
+      </c>
+      <c r="L13">
+        <v>89.758543183254503</v>
+      </c>
+      <c r="M13">
+        <v>24.618181818181821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>82.610416666666666</v>
+      </c>
+      <c r="C14">
+        <v>8.6918310047583063</v>
+      </c>
+      <c r="D14">
+        <v>129.36583333333331</v>
+      </c>
+      <c r="E14">
+        <v>14.95936855749229</v>
+      </c>
+      <c r="F14">
+        <v>24.583333333333329</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>105.92020833333331</v>
+      </c>
+      <c r="J14">
+        <v>47.707516255284823</v>
+      </c>
+      <c r="K14">
+        <v>110.371875</v>
+      </c>
+      <c r="L14">
+        <v>64.068736977895142</v>
+      </c>
+      <c r="M14">
+        <v>24.583333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>106.0857692307693</v>
+      </c>
+      <c r="C15">
+        <v>11.667105626427871</v>
+      </c>
+      <c r="D15">
+        <v>166.37326923076921</v>
+      </c>
+      <c r="E15">
+        <v>18.92700670479234</v>
+      </c>
+      <c r="F15">
+        <v>24.838461538461541</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>127.4221153846154</v>
+      </c>
+      <c r="J15">
+        <v>61.004841698130043</v>
+      </c>
+      <c r="K15">
+        <v>135.62442307692311</v>
+      </c>
+      <c r="L15">
+        <v>85.313685592472808</v>
+      </c>
+      <c r="M15">
+        <v>24.838461538461541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>90.408928571428575</v>
+      </c>
+      <c r="C16">
+        <v>9.3779902374046618</v>
+      </c>
+      <c r="D16">
+        <v>141.5994642857143</v>
+      </c>
+      <c r="E16">
+        <v>15.703023836865739</v>
+      </c>
+      <c r="F16">
+        <v>24.25714285714286</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>108.52892857142859</v>
+      </c>
+      <c r="J16">
+        <v>59.184305372484268</v>
+      </c>
+      <c r="K16">
+        <v>116.47125</v>
+      </c>
+      <c r="L16">
+        <v>79.898867349885776</v>
+      </c>
+      <c r="M16">
+        <v>24.25714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>91.795000000000002</v>
+      </c>
+      <c r="C17">
+        <v>10.47412205283945</v>
+      </c>
+      <c r="D17">
+        <v>143.30466666666669</v>
+      </c>
+      <c r="E17">
+        <v>17.286502454548501</v>
+      </c>
+      <c r="F17">
+        <v>23.32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>95.617333333333335</v>
+      </c>
+      <c r="J17">
+        <v>39.613582092790118</v>
+      </c>
+      <c r="K17">
+        <v>104.2848333333333</v>
+      </c>
+      <c r="L17">
+        <v>68.829472014174272</v>
+      </c>
+      <c r="M17">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>160.11296874999999</v>
+      </c>
+      <c r="C18">
+        <v>15.938507344849951</v>
+      </c>
+      <c r="D18">
+        <v>249.09062499999999</v>
+      </c>
+      <c r="E18">
+        <v>25.254303469903899</v>
+      </c>
+      <c r="F18">
+        <v>26.675000000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>157.69593750000001</v>
+      </c>
+      <c r="J18">
+        <v>98.055387793292468</v>
+      </c>
+      <c r="K18">
+        <v>172.82499999999999</v>
+      </c>
+      <c r="L18">
+        <v>132.7864576232268</v>
+      </c>
+      <c r="M18">
+        <v>26.675000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>120.7623529411765</v>
+      </c>
+      <c r="C19">
+        <v>12.14749812622515</v>
+      </c>
+      <c r="D19">
+        <v>188.90294117647059</v>
+      </c>
+      <c r="E19">
+        <v>19.21147094620698</v>
+      </c>
+      <c r="F19">
+        <v>23.764705882352938</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>99.985588235294117</v>
+      </c>
+      <c r="J19">
+        <v>33.684412984556907</v>
+      </c>
+      <c r="K19">
+        <v>105.8326470588235</v>
+      </c>
+      <c r="L19">
+        <v>48.167479372680972</v>
+      </c>
+      <c r="M19">
+        <v>23.764705882352938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>137.25416666666669</v>
+      </c>
+      <c r="C20">
+        <v>18.380561758012821</v>
+      </c>
+      <c r="D20">
+        <v>213.23805555555549</v>
+      </c>
+      <c r="E20">
+        <v>28.526312565153159</v>
+      </c>
+      <c r="F20">
+        <v>23.977777777777781</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>120.8879166666667</v>
+      </c>
+      <c r="J20">
+        <v>52.110211433354003</v>
+      </c>
+      <c r="K20">
+        <v>136.57458333333341</v>
+      </c>
+      <c r="L20">
+        <v>89.944275228784448</v>
+      </c>
+      <c r="M20">
+        <v>23.977777777777781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>143.82526315789471</v>
+      </c>
+      <c r="C21">
+        <v>16.597077772358531</v>
+      </c>
+      <c r="D21">
+        <v>224.5667105263158</v>
+      </c>
+      <c r="E21">
+        <v>25.944771952600341</v>
+      </c>
+      <c r="F21">
+        <v>24.147368421052629</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>115.38552631578951</v>
+      </c>
+      <c r="J21">
+        <v>47.154079611741658</v>
+      </c>
+      <c r="K21">
+        <v>127.7669736842105</v>
+      </c>
+      <c r="L21">
+        <v>80.988743446726218</v>
+      </c>
+      <c r="M21">
+        <v>24.147368421052629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>107.52800000000001</v>
+      </c>
+      <c r="C22">
+        <v>10.05235847948132</v>
+      </c>
+      <c r="D22">
+        <v>167.322</v>
+      </c>
+      <c r="E22">
+        <v>15.569599978804851</v>
+      </c>
+      <c r="F22">
+        <v>22.6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>122.51537500000001</v>
+      </c>
+      <c r="J22">
+        <v>72.080161108895794</v>
+      </c>
+      <c r="K22">
+        <v>139.33837500000001</v>
+      </c>
+      <c r="L22">
+        <v>106.36452961036581</v>
+      </c>
+      <c r="M22">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>335.15</v>
+      </c>
+      <c r="H27">
+        <v>637</v>
+      </c>
+      <c r="I27">
+        <v>101.30875629758808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>50.9</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>5.3722935941307801</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>489.9</v>
+      </c>
+      <c r="H28">
+        <v>671</v>
+      </c>
+      <c r="I28">
+        <v>103.20400509024181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>78.375</v>
+      </c>
+      <c r="C29">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>13.951725378090018</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>439.6</v>
+      </c>
+      <c r="H29">
+        <v>704</v>
+      </c>
+      <c r="I29">
+        <v>90.872917744986978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>118.52500000000001</v>
+      </c>
+      <c r="C30">
+        <v>208</v>
+      </c>
+      <c r="D30">
+        <v>30.123666051964122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>506.95</v>
+      </c>
+      <c r="H30">
+        <v>742</v>
+      </c>
+      <c r="I30">
+        <v>83.039672322855353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B31">
+        <v>121.4</v>
+      </c>
+      <c r="C31">
+        <v>178</v>
+      </c>
+      <c r="D31">
+        <v>24.370852704377434</v>
+      </c>
+      <c r="F31" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
+      <c r="G31">
+        <v>437.4</v>
+      </c>
+      <c r="H31">
+        <v>660</v>
+      </c>
+      <c r="I31">
+        <v>97.230838201857992</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>26.76</v>
-      </c>
-      <c r="C3">
-        <v>26.982500000000002</v>
-      </c>
-      <c r="D3">
-        <v>26.4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>50.875</v>
-      </c>
-      <c r="H3">
-        <v>51.892499999999998</v>
-      </c>
-      <c r="I3">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>30.5275</v>
-      </c>
-      <c r="C4">
-        <v>31.053750000000001</v>
-      </c>
-      <c r="D4">
-        <v>29.8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B32">
+        <v>100.575</v>
+      </c>
+      <c r="C32">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>19.710582215704637</v>
+      </c>
+      <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>47.657500000000013</v>
-      </c>
-      <c r="H4">
-        <v>48.681249999999999</v>
-      </c>
-      <c r="I4">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>26.855</v>
-      </c>
-      <c r="C5">
-        <v>27.528333333333329</v>
-      </c>
-      <c r="D5">
-        <v>25.93333333333333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>50.833333333333329</v>
-      </c>
-      <c r="H5">
-        <v>51.899166666666673</v>
-      </c>
-      <c r="I5">
-        <v>25.93333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>25.171250000000001</v>
-      </c>
-      <c r="C6">
-        <v>26.780625000000001</v>
-      </c>
-      <c r="D6">
-        <v>23.175000000000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>52.448749999999997</v>
-      </c>
-      <c r="H6">
-        <v>53.523749999999993</v>
-      </c>
-      <c r="I6">
-        <v>23.175000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>22.094000000000001</v>
-      </c>
-      <c r="C7">
-        <v>23.382000000000001</v>
-      </c>
-      <c r="D7">
-        <v>20.66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>39.860999999999997</v>
-      </c>
-      <c r="H7">
-        <v>40.93</v>
-      </c>
-      <c r="I7">
-        <v>20.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>30.095833333333331</v>
-      </c>
-      <c r="C8">
-        <v>36.788750000000007</v>
-      </c>
-      <c r="D8">
-        <v>23.95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>50.114166666666662</v>
-      </c>
-      <c r="H8">
-        <v>51.262083333333337</v>
-      </c>
-      <c r="I8">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>31.246428571428581</v>
-      </c>
-      <c r="C9">
-        <v>40.563928571428583</v>
-      </c>
-      <c r="D9">
-        <v>22.38571428571429</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>42.746428571428567</v>
-      </c>
-      <c r="H9">
-        <v>43.96892857142857</v>
-      </c>
-      <c r="I9">
-        <v>22.38571428571429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>32.480625000000003</v>
-      </c>
-      <c r="C10">
-        <v>41.8984375</v>
-      </c>
-      <c r="D10">
-        <v>23.925000000000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>44.698124999999997</v>
-      </c>
-      <c r="H10">
-        <v>46.060625000000002</v>
-      </c>
-      <c r="I10">
-        <v>23.925000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>38.348888888888887</v>
-      </c>
-      <c r="C11">
-        <v>52.956944444444453</v>
-      </c>
-      <c r="D11">
-        <v>24.966666666666669</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>49.007222222222218</v>
-      </c>
-      <c r="H11">
-        <v>50.422222222222217</v>
-      </c>
-      <c r="I11">
-        <v>24.966666666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>42.695000000000007</v>
-      </c>
-      <c r="C12">
-        <v>60.602250000000012</v>
-      </c>
-      <c r="D12">
-        <v>25.94</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>48.338999999999999</v>
-      </c>
-      <c r="H12">
-        <v>49.764750000000006</v>
-      </c>
-      <c r="I12">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>36.604999999999997</v>
-      </c>
-      <c r="C13">
-        <v>50.88340909090909</v>
-      </c>
-      <c r="D13">
-        <v>23.40909090909091</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>45.109090909090909</v>
-      </c>
-      <c r="H13">
-        <v>46.570681818181818</v>
-      </c>
-      <c r="I13">
-        <v>23.40909090909091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>43.767916666666657</v>
-      </c>
-      <c r="C14">
-        <v>63.304375000000007</v>
-      </c>
-      <c r="D14">
-        <v>24.983333333333331</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>51.095833333333339</v>
-      </c>
-      <c r="H14">
-        <v>52.919375000000002</v>
-      </c>
-      <c r="I14">
-        <v>24.983333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>54.369230769230761</v>
-      </c>
-      <c r="C15">
-        <v>84.265384615384619</v>
-      </c>
-      <c r="D15">
-        <v>25.91538461538461</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15">
-        <v>54.140384615384619</v>
-      </c>
-      <c r="H15">
-        <v>56.301346153846147</v>
-      </c>
-      <c r="I15">
-        <v>25.91538461538461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>53.847142857142863</v>
-      </c>
-      <c r="C16">
-        <v>82.481428571428566</v>
-      </c>
-      <c r="D16">
-        <v>26.06428571428571</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>55.398571428571429</v>
-      </c>
-      <c r="H16">
-        <v>58.054999999999993</v>
-      </c>
-      <c r="I16">
-        <v>26.06428571428571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>50.600333333333332</v>
-      </c>
-      <c r="C17">
-        <v>78.357833333333332</v>
-      </c>
-      <c r="D17">
-        <v>23.77333333333333</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>51.043666666666667</v>
-      </c>
-      <c r="H17">
-        <v>53.282166666666669</v>
-      </c>
-      <c r="I17">
-        <v>23.77333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>47.704062500000013</v>
-      </c>
-      <c r="C18">
-        <v>72.799374999999998</v>
-      </c>
-      <c r="D18">
-        <v>22.831250000000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>50.549374999999998</v>
-      </c>
-      <c r="H18">
-        <v>53.143124999999998</v>
-      </c>
-      <c r="I18">
-        <v>22.831250000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>63.158529411764697</v>
-      </c>
-      <c r="C19">
-        <v>99.564117647058822</v>
-      </c>
-      <c r="D19">
-        <v>24.794117647058819</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19">
-        <v>61.153823529411767</v>
-      </c>
-      <c r="H19">
-        <v>67.163235294117655</v>
-      </c>
-      <c r="I19">
-        <v>24.794117647058819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>68.381944444444429</v>
-      </c>
-      <c r="C20">
-        <v>108.4469444444444</v>
-      </c>
-      <c r="D20">
-        <v>25.233333333333331</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <v>56.33</v>
-      </c>
-      <c r="H20">
-        <v>59.727499999999999</v>
-      </c>
-      <c r="I20">
-        <v>25.233333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>63.181315789473693</v>
-      </c>
-      <c r="C21">
-        <v>100.5718421052632</v>
-      </c>
-      <c r="D21">
-        <v>23.068421052631582</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21">
-        <v>54.187105263157903</v>
-      </c>
-      <c r="H21">
-        <v>58.251447368421047</v>
-      </c>
-      <c r="I21">
-        <v>23.068421052631582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>73.496499999999997</v>
-      </c>
-      <c r="C22">
-        <v>117.156875</v>
-      </c>
-      <c r="D22">
-        <v>25.965</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>62.084000000000003</v>
-      </c>
-      <c r="H22">
-        <v>66.964500000000001</v>
-      </c>
-      <c r="I22">
-        <v>25.965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>39.024999999999999</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>0.15811388300841894</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>154.72499999999999</v>
-      </c>
-      <c r="H27">
-        <v>314</v>
-      </c>
-      <c r="I27">
-        <v>59.838666643241851</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>46.225000000000001</v>
-      </c>
-      <c r="C28">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <v>0.6975230903263786</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>125.5</v>
-      </c>
-      <c r="H28">
-        <v>255</v>
-      </c>
-      <c r="I28">
-        <v>33.437273842992674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>46.85</v>
-      </c>
-      <c r="C29">
-        <v>64</v>
-      </c>
-      <c r="D29">
-        <v>4.1605596270521605</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29">
-        <v>213.35</v>
-      </c>
-      <c r="H29">
-        <v>320</v>
-      </c>
-      <c r="I29">
-        <v>51.703072368164882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>56.075000000000003</v>
-      </c>
-      <c r="C30">
-        <v>80</v>
-      </c>
-      <c r="D30">
-        <v>7.4019661282731102</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30">
-        <v>231.4</v>
-      </c>
-      <c r="H30">
-        <v>342</v>
-      </c>
-      <c r="I30">
-        <v>48.192349642890065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>54.6</v>
-      </c>
-      <c r="C31">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>7.9704582759214846</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>198.5</v>
-      </c>
-      <c r="H31">
-        <v>360</v>
-      </c>
-      <c r="I31">
-        <v>46.207447507173612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32">
-        <v>95.2</v>
-      </c>
-      <c r="C32">
-        <v>203</v>
-      </c>
-      <c r="D32">
-        <v>26.165351918627842</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
       <c r="G32">
-        <v>272.72500000000002</v>
+        <v>545.25</v>
       </c>
       <c r="H32">
-        <v>404</v>
+        <v>782</v>
       </c>
       <c r="I32">
-        <v>41.987169896260433</v>
+        <v>94.34273306435044</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>122.35</v>
+        <v>275.35000000000002</v>
       </c>
       <c r="C33">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="D33">
-        <v>32.032475508138397</v>
+        <v>55.236809540424495</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>236.625</v>
+        <v>544.9</v>
       </c>
       <c r="H33">
-        <v>352</v>
+        <v>709</v>
       </c>
       <c r="I33">
-        <v>45.742695928084856</v>
+        <v>67.336811283622154</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>112.02500000000001</v>
+        <v>318.45</v>
       </c>
       <c r="C34">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="D34">
-        <v>25.985683928478167</v>
+        <v>52.229743957309914</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>234.35</v>
+        <v>571.67499999999995</v>
       </c>
       <c r="H34">
-        <v>360</v>
+        <v>737</v>
       </c>
       <c r="I34">
-        <v>49.306238228089668</v>
+        <v>84.328535639348871</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>172.72499999999999</v>
+        <v>334.52499999999998</v>
       </c>
       <c r="C35">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="D35">
-        <v>39.83812598568467</v>
+        <v>48.453513275282106</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G35">
-        <v>241.97499999999999</v>
+        <v>601.25</v>
       </c>
       <c r="H35">
-        <v>347</v>
+        <v>749</v>
       </c>
       <c r="I35">
-        <v>50.429685752820305</v>
+        <v>88.49735618244226</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>192.72499999999999</v>
+        <v>344.17500000000001</v>
       </c>
       <c r="C36">
-        <v>321</v>
+        <v>505</v>
       </c>
       <c r="D36">
-        <v>43.594275971002197</v>
+        <v>60.361257527129268</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>229.85</v>
+        <v>590.9</v>
       </c>
       <c r="H36">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="I36">
-        <v>52.576952150499366</v>
+        <v>82.545651704887561</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>156.25</v>
+        <v>346.22500000000002</v>
       </c>
       <c r="C37">
-        <v>208</v>
+        <v>456</v>
       </c>
       <c r="D37">
-        <v>24.307590879372935</v>
+        <v>53.134318187314307</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37">
-        <v>221.875</v>
+        <v>558.25</v>
       </c>
       <c r="H37">
-        <v>348</v>
+        <v>775</v>
       </c>
       <c r="I37">
-        <v>44.194899055932943</v>
+        <v>158.15664905727371</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>219.42500000000001</v>
+        <v>416.625</v>
       </c>
       <c r="C38">
-        <v>362</v>
+        <v>559</v>
       </c>
       <c r="D38">
-        <v>58.348153794974941</v>
+        <v>56.677987179938128</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>250.95</v>
+        <v>588.17499999999995</v>
       </c>
       <c r="H38">
-        <v>335</v>
+        <v>742</v>
       </c>
       <c r="I38">
-        <v>43.586606976137809</v>
+        <v>108.77284905852059</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>265.60000000000002</v>
+        <v>507.55</v>
       </c>
       <c r="C39">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D39">
-        <v>42.633079729002567</v>
+        <v>70.053807158754097</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G39">
-        <v>258.07499999999999</v>
+        <v>567.875</v>
       </c>
       <c r="H39">
-        <v>354</v>
+        <v>741</v>
       </c>
       <c r="I39">
-        <v>42.796709375059791</v>
+        <v>131.31644838094203</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>255.72499999999999</v>
+        <v>496.2</v>
       </c>
       <c r="C40">
-        <v>415</v>
+        <v>685</v>
       </c>
       <c r="D40">
-        <v>52.348921816830362</v>
+        <v>72.11038546775147</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>263.5</v>
+        <v>564.65</v>
       </c>
       <c r="H40">
-        <v>335</v>
+        <v>836</v>
       </c>
       <c r="I40">
-        <v>31.57814888779086</v>
+        <v>163.26234197662453</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>254.6</v>
+        <v>503.75</v>
       </c>
       <c r="C41">
-        <v>359</v>
+        <v>634</v>
       </c>
       <c r="D41">
-        <v>33.0607831821236</v>
+        <v>66.852976843372602</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>257.14999999999998</v>
+        <v>619.85</v>
       </c>
       <c r="H41">
-        <v>372</v>
+        <v>976</v>
       </c>
       <c r="I41">
-        <v>43.823977747815498</v>
+        <v>166.07436548665439</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>269.42500000000001</v>
+        <v>721.65</v>
       </c>
       <c r="C42">
-        <v>397</v>
+        <v>945</v>
       </c>
       <c r="D42">
-        <v>53.924870576262528</v>
+        <v>85.44290341268713</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G42">
-        <v>293.32499999999999</v>
+        <v>581.22500000000002</v>
       </c>
       <c r="H42">
-        <v>409</v>
+        <v>795</v>
       </c>
       <c r="I42">
-        <v>44.067772688707414</v>
+        <v>185.49179088892177</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>315.55</v>
+        <v>644.27499999999998</v>
       </c>
       <c r="C43">
-        <v>536</v>
+        <v>833</v>
       </c>
       <c r="D43">
-        <v>54.39831728166709</v>
+        <v>72.837010703385673</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G43">
-        <v>313.125</v>
+        <v>621.07500000000005</v>
       </c>
       <c r="H43">
-        <v>878</v>
+        <v>821</v>
       </c>
       <c r="I43">
-        <v>135.31069423500483</v>
+        <v>107.56211979774582</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>380.4</v>
+        <v>718.97500000000002</v>
       </c>
       <c r="C44">
-        <v>598</v>
+        <v>972</v>
       </c>
       <c r="D44">
-        <v>76.053894520891319</v>
+        <v>105.3306119820485</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>297.60000000000002</v>
+        <v>604.54999999999995</v>
       </c>
       <c r="H44">
-        <v>419</v>
+        <v>816</v>
       </c>
       <c r="I44">
-        <v>48.639859142845999</v>
+        <v>165.68149084993297</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>351.32499999999999</v>
+        <v>761.95</v>
       </c>
       <c r="C45">
-        <v>495</v>
+        <v>984</v>
       </c>
       <c r="D45">
-        <v>57.504687657304181</v>
+        <v>113.16970465315359</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G45">
-        <v>297.14999999999998</v>
+        <v>650.27499999999998</v>
       </c>
       <c r="H45">
-        <v>542</v>
+        <v>886</v>
       </c>
       <c r="I45">
-        <v>57.142444595580415</v>
+        <v>146.89189946421541</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>381.6</v>
+        <v>626.17499999999995</v>
       </c>
       <c r="C46">
-        <v>549</v>
+        <v>827</v>
       </c>
       <c r="D46">
-        <v>57.821032461136369</v>
+        <v>65.487085240781198</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>308.22500000000002</v>
+        <v>590.5</v>
       </c>
       <c r="H46">
-        <v>417</v>
+        <v>764</v>
       </c>
       <c r="I46">
-        <v>47.342444500490821</v>
+        <v>208.5606349758709</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>39.024999999999999</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>0.15811388300841894</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G51">
-        <v>154.72499999999999</v>
+        <v>335.15</v>
       </c>
       <c r="H51">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="I51">
-        <v>59.838666643241851</v>
+        <v>101.30875629758808</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>46.225000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>0.6975230903263786</v>
+        <v>5.3722935941307801</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G52">
-        <v>125.5</v>
+        <v>489.9</v>
       </c>
       <c r="H52">
-        <v>255</v>
+        <v>671</v>
       </c>
       <c r="I52">
-        <v>33.437273842992674</v>
+        <v>103.20400509024181</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>46.85</v>
+        <v>78.375</v>
       </c>
       <c r="C53">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>4.1605596270521605</v>
+        <v>13.951725378090018</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>213.35</v>
+        <v>439.6</v>
       </c>
       <c r="H53">
-        <v>320</v>
+        <v>704</v>
       </c>
       <c r="I53">
-        <v>51.703072368164882</v>
+        <v>90.872917744986978</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>56.075000000000003</v>
+        <v>118.52500000000001</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="D54">
-        <v>7.4019661282731102</v>
+        <v>30.123666051964122</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G54">
-        <v>231.4</v>
+        <v>506.95</v>
       </c>
       <c r="H54">
-        <v>342</v>
+        <v>742</v>
       </c>
       <c r="I54">
-        <v>48.192349642890065</v>
+        <v>83.039672322855353</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>54.6</v>
+        <v>121.4</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="D55">
-        <v>7.9704582759214846</v>
+        <v>24.370852704377434</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>198.5</v>
+        <v>437.4</v>
       </c>
       <c r="H55">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="I55">
-        <v>46.207447507173612</v>
+        <v>97.230838201857992</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>95.2</v>
+        <v>100.575</v>
       </c>
       <c r="C56">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D56">
-        <v>26.165351918627842</v>
+        <v>19.710582215704637</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G56">
-        <v>272.72500000000002</v>
+        <v>545.25</v>
       </c>
       <c r="H56">
-        <v>404</v>
+        <v>782</v>
       </c>
       <c r="I56">
-        <v>41.987169896260433</v>
+        <v>94.34273306435044</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>122.35</v>
+        <v>275.35000000000002</v>
       </c>
       <c r="C57">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="D57">
-        <v>32.032475508138397</v>
+        <v>55.236809540424495</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>236.625</v>
+        <v>544.9</v>
       </c>
       <c r="H57">
-        <v>352</v>
+        <v>709</v>
       </c>
       <c r="I57">
-        <v>45.742695928084856</v>
+        <v>67.336811283622154</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>112.02500000000001</v>
+        <v>318.45</v>
       </c>
       <c r="C58">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="D58">
-        <v>25.985683928478167</v>
+        <v>52.229743957309914</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>234.35</v>
+        <v>571.67499999999995</v>
       </c>
       <c r="H58">
-        <v>360</v>
+        <v>737</v>
       </c>
       <c r="I58">
-        <v>49.306238228089668</v>
+        <v>84.328535639348871</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>172.72499999999999</v>
+        <v>334.52499999999998</v>
       </c>
       <c r="C59">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="D59">
-        <v>39.83812598568467</v>
+        <v>48.453513275282106</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G59">
-        <v>241.97499999999999</v>
+        <v>601.25</v>
       </c>
       <c r="H59">
-        <v>347</v>
+        <v>749</v>
       </c>
       <c r="I59">
-        <v>50.429685752820305</v>
+        <v>88.49735618244226</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>192.72499999999999</v>
+        <v>344.17500000000001</v>
       </c>
       <c r="C60">
-        <v>321</v>
+        <v>505</v>
       </c>
       <c r="D60">
-        <v>43.594275971002197</v>
+        <v>60.361257527129268</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>229.85</v>
+        <v>590.9</v>
       </c>
       <c r="H60">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="I60">
-        <v>52.576952150499366</v>
+        <v>82.545651704887561</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>156.25</v>
+        <v>346.22500000000002</v>
       </c>
       <c r="C61">
-        <v>208</v>
+        <v>456</v>
       </c>
       <c r="D61">
-        <v>24.307590879372935</v>
+        <v>53.134318187314307</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>221.875</v>
+        <v>629.54999999999995</v>
       </c>
       <c r="H61">
-        <v>348</v>
+        <v>1000</v>
       </c>
       <c r="I61">
-        <v>44.194899055932943</v>
+        <v>122.00251153362717</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>219.42500000000001</v>
+        <v>416.625</v>
       </c>
       <c r="C62">
-        <v>362</v>
+        <v>559</v>
       </c>
       <c r="D62">
-        <v>58.348153794974941</v>
+        <v>56.677987179938128</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>250.95</v>
+        <v>612.02499999999998</v>
       </c>
       <c r="H62">
-        <v>335</v>
+        <v>1000</v>
       </c>
       <c r="I62">
-        <v>43.586606976137809</v>
+        <v>89.775071492806134</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>265.60000000000002</v>
+        <v>507.55</v>
       </c>
       <c r="C63">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D63">
-        <v>42.633079729002567</v>
+        <v>70.053807158754097</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G63">
-        <v>258.07499999999999</v>
+        <v>614.6</v>
       </c>
       <c r="H63">
-        <v>354</v>
+        <v>1000</v>
       </c>
       <c r="I63">
-        <v>42.796709375059791</v>
+        <v>107.82340738210405</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>255.72499999999999</v>
+        <v>496.2</v>
       </c>
       <c r="C64">
-        <v>415</v>
+        <v>685</v>
       </c>
       <c r="D64">
-        <v>52.348921816830362</v>
+        <v>72.11038546775147</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G64">
-        <v>263.5</v>
+        <v>635.375</v>
       </c>
       <c r="H64">
-        <v>335</v>
+        <v>1000</v>
       </c>
       <c r="I64">
-        <v>31.57814888779086</v>
+        <v>127.58681056742985</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>254.6</v>
+        <v>503.75</v>
       </c>
       <c r="C65">
-        <v>359</v>
+        <v>634</v>
       </c>
       <c r="D65">
-        <v>33.0607831821236</v>
+        <v>66.852976843372602</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>257.14999999999998</v>
+        <v>667.2</v>
       </c>
       <c r="H65">
-        <v>372</v>
+        <v>1000</v>
       </c>
       <c r="I65">
-        <v>43.823977747815498</v>
+        <v>127.31511481964121</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>269.42500000000001</v>
+        <v>729.82500000000005</v>
       </c>
       <c r="C66">
-        <v>397</v>
+        <v>1000</v>
       </c>
       <c r="D66">
-        <v>53.924870576262528</v>
+        <v>95.696873860469594</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G66">
-        <v>293.32499999999999</v>
+        <v>674.42499999999995</v>
       </c>
       <c r="H66">
-        <v>409</v>
+        <v>1000</v>
       </c>
       <c r="I66">
-        <v>44.067772688707414</v>
+        <v>128.28851448480458</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>315.55</v>
+        <v>644.27499999999998</v>
       </c>
       <c r="C67">
-        <v>536</v>
+        <v>833</v>
       </c>
       <c r="D67">
-        <v>54.39831728166709</v>
+        <v>72.837010703385673</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G67">
-        <v>319.67500000000001</v>
+        <v>643.57500000000005</v>
       </c>
       <c r="H67">
         <v>1000</v>
       </c>
       <c r="I67">
-        <v>163.12436462200651</v>
+        <v>88.147570759319507</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>380.4</v>
+        <v>718.97500000000002</v>
       </c>
       <c r="C68">
-        <v>598</v>
+        <v>972</v>
       </c>
       <c r="D68">
-        <v>76.053894520891319</v>
+        <v>105.3306119820485</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G68">
-        <v>297.60000000000002</v>
+        <v>673.1</v>
       </c>
       <c r="H68">
-        <v>419</v>
+        <v>1000</v>
       </c>
       <c r="I68">
-        <v>48.639859142845999</v>
+        <v>118.13894470668973</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>351.32499999999999</v>
+        <v>761.95</v>
       </c>
       <c r="C69">
-        <v>495</v>
+        <v>984</v>
       </c>
       <c r="D69">
-        <v>57.504687657304181</v>
+        <v>113.16970465315359</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G69">
-        <v>308.60000000000002</v>
+        <v>695.625</v>
       </c>
       <c r="H69">
         <v>1000</v>
       </c>
       <c r="I69">
-        <v>119.41605784732167</v>
+        <v>99.015587350990046</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>381.6</v>
+        <v>626.17499999999995</v>
       </c>
       <c r="C70">
-        <v>549</v>
+        <v>827</v>
       </c>
       <c r="D70">
-        <v>57.821032461136369</v>
+        <v>65.487085240781198</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>308.22500000000002</v>
+        <v>707.3</v>
       </c>
       <c r="H70">
-        <v>417</v>
+        <v>1000</v>
       </c>
       <c r="I70">
-        <v>47.342444500490821</v>
+        <v>125.18769497981395</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -9358,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -9372,7 +11203,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>20</v>
@@ -9384,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -9398,7 +11229,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -9410,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -9424,7 +11255,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>40</v>
@@ -9436,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -9450,7 +11281,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B80">
         <v>50</v>
@@ -9462,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>50</v>
@@ -9476,7 +11307,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>60</v>
@@ -9488,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G81">
         <v>60</v>
@@ -9502,7 +11333,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -9514,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G82">
         <v>70</v>
@@ -9528,7 +11359,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B83">
         <v>80</v>
@@ -9540,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G83">
         <v>80</v>
@@ -9554,7 +11385,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B84">
         <v>90</v>
@@ -9566,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G84">
         <v>90</v>
@@ -9580,7 +11411,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85">
         <v>100</v>
@@ -9592,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -9606,7 +11437,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B86">
         <v>110</v>
@@ -9618,21 +11449,21 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G86">
-        <v>110</v>
+        <v>106.55</v>
       </c>
       <c r="H86">
         <v>110</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>12.272441505781199</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <v>120</v>
@@ -9644,21 +11475,21 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <v>120</v>
+        <v>118.5</v>
       </c>
       <c r="H87">
         <v>120</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>9.4868329805051381</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B88">
         <v>130</v>
@@ -9670,21 +11501,21 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G88">
-        <v>130</v>
+        <v>126.8</v>
       </c>
       <c r="H88">
         <v>130</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>14.214835154216143</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B89">
         <v>140</v>
@@ -9696,21 +11527,21 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G89">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H89">
         <v>140</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>14.284651975154384</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>150</v>
@@ -9722,47 +11553,47 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>150</v>
+        <v>147.125</v>
       </c>
       <c r="H90">
         <v>150</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>12.912302819503735</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>160</v>
+        <v>159.94999999999999</v>
       </c>
       <c r="C91">
         <v>160</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.316227766016838</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G91">
-        <v>160</v>
+        <v>151.02500000000001</v>
       </c>
       <c r="H91">
         <v>160</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>27.272121108259789</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92">
         <v>170</v>
@@ -9774,21 +11605,21 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G92">
-        <v>168.375</v>
+        <v>168.35</v>
       </c>
       <c r="H92">
         <v>170</v>
       </c>
       <c r="I92">
-        <v>7.1814843833791038</v>
+        <v>10.435516278555646</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B93">
         <v>180</v>
@@ -9800,21 +11631,21 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93">
-        <v>180</v>
+        <v>174.15</v>
       </c>
       <c r="H93">
         <v>180</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>21.015928025410467</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94">
         <v>190</v>
@@ -9826,21 +11657,21 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G94">
-        <v>188.97499999999999</v>
+        <v>185.57499999999999</v>
       </c>
       <c r="H94">
         <v>190</v>
       </c>
       <c r="I94">
-        <v>6.4826692033451785</v>
+        <v>19.607543681725328</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>200</v>
@@ -9852,20 +11683,21 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>200</v>
+        <v>189.8</v>
       </c>
       <c r="H95">
         <v>200</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>27.342274960214954</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/memoria/4pasillo/4pasillo.xlsx
+++ b/memoria/4pasillo/4pasillo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2C38-2077-4AA0-AFFF-EE09AA3F2C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A5B44-E46D-4180-A29D-9F7BF67F77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="2925" yWindow="2085" windowWidth="15375" windowHeight="7965" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <t>makespan</t>
   </si>
   <si>
-    <t>completion_time</t>
+    <t>tiempo_en_acabar</t>
   </si>
   <si>
-    <t>tiempo_en_acabar</t>
+    <t>completion_time</t>
   </si>
 </sst>
 </file>
@@ -310,64 +310,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.19435791725576759</c:v>
+                    <c:v>7.999999999999971E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.47391982444291142</c:v>
+                    <c:v>0.20123058912600719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0922708290807441</c:v>
+                    <c:v>0.20214818547018601</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.379966484671113</c:v>
+                    <c:v>0.51579883433369655</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4236955254321861</c:v>
+                    <c:v>0.29482876386133028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5646065799427029</c:v>
+                    <c:v>1.8724269381978269</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4750455278643404</c:v>
+                    <c:v>2.7023435596322161</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4261106231982854</c:v>
+                    <c:v>2.1914855656323629</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.1640675380249093</c:v>
+                    <c:v>3.4814684002906331</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3878253072796376</c:v>
+                    <c:v>3.4881305881517681</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8524578454695328</c:v>
+                    <c:v>2.421902426530921</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6918310047583063</c:v>
+                    <c:v>4.9110255597595014</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.667105626427871</c:v>
+                    <c:v>4.6422206989491004</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.3779902374046618</c:v>
+                    <c:v>5.1569471668451916</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10.47412205283945</c:v>
+                    <c:v>3.6448337715487411</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.938507344849951</c:v>
+                    <c:v>4.6984928496906067</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.14749812622515</c:v>
+                    <c:v>5.8053200082272696</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>18.380561758012821</c:v>
+                    <c:v>6.8231729736986981</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>16.597077772358531</c:v>
+                    <c:v>6.0383423949057704</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>10.05235847948132</c:v>
+                    <c:v>4.6453576557677456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -379,64 +379,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.19435791725576759</c:v>
+                    <c:v>7.999999999999971E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.47391982444291142</c:v>
+                    <c:v>0.20123058912600719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0922708290807441</c:v>
+                    <c:v>0.20214818547018601</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.379966484671113</c:v>
+                    <c:v>0.51579883433369655</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4236955254321861</c:v>
+                    <c:v>0.29482876386133028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5646065799427029</c:v>
+                    <c:v>1.8724269381978269</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4750455278643404</c:v>
+                    <c:v>2.7023435596322161</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4261106231982854</c:v>
+                    <c:v>2.1914855656323629</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.1640675380249093</c:v>
+                    <c:v>3.4814684002906331</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3878253072796376</c:v>
+                    <c:v>3.4881305881517681</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8524578454695328</c:v>
+                    <c:v>2.421902426530921</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6918310047583063</c:v>
+                    <c:v>4.9110255597595014</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.667105626427871</c:v>
+                    <c:v>4.6422206989491004</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.3779902374046618</c:v>
+                    <c:v>5.1569471668451916</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10.47412205283945</c:v>
+                    <c:v>3.6448337715487411</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.938507344849951</c:v>
+                    <c:v>4.6984928496906067</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.14749812622515</c:v>
+                    <c:v>5.8053200082272696</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>18.380561758012821</c:v>
+                    <c:v>6.8231729736986981</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>16.597077772358531</c:v>
+                    <c:v>6.0383423949057704</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>10.05235847948132</c:v>
+                    <c:v>4.6453576557677456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -530,64 +530,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.835000000000001</c:v>
+                  <c:v>26.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.13</c:v>
+                  <c:v>30.5275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.875</c:v>
+                  <c:v>26.855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.591249999999999</c:v>
+                  <c:v>25.171250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.91</c:v>
+                  <c:v>22.094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619166666666661</c:v>
+                  <c:v>30.095833333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.341428571428573</c:v>
+                  <c:v>31.246428571428581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.791875000000005</c:v>
+                  <c:v>32.480625000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.290000000000006</c:v>
+                  <c:v>38.348888888888887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.353999999999999</c:v>
+                  <c:v>42.695000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.369090909090914</c:v>
+                  <c:v>36.604999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.610416666666666</c:v>
+                  <c:v>43.767916666666657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.0857692307693</c:v>
+                  <c:v>54.369230769230761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.408928571428575</c:v>
+                  <c:v>53.847142857142863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.795000000000002</c:v>
+                  <c:v>50.600333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.11296874999999</c:v>
+                  <c:v>47.704062500000013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.7623529411765</c:v>
+                  <c:v>63.158529411764697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.25416666666669</c:v>
+                  <c:v>68.381944444444429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143.82526315789471</c:v>
+                  <c:v>63.181315789473693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.52800000000001</c:v>
+                  <c:v>73.496499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,64 +637,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.07525959063714</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.034063544529189</c:v>
+                    <c:v>3.3017334462369909</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.71761789453857</c:v>
+                    <c:v>5.298888772395796</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3362659737430462</c:v>
+                    <c:v>3.738197886348448</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0081926343387559</c:v>
+                    <c:v>2.688664910322593</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.2325759972194934</c:v>
+                    <c:v>3.371072921028095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3314820781648313</c:v>
+                    <c:v>2.658169444546072</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0349354141383742</c:v>
+                    <c:v>2.231538059136569</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6262996852414604</c:v>
+                    <c:v>2.9003273016661621</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.2580088950118453</c:v>
+                    <c:v>2.1797474624368758</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>61.631361220556869</c:v>
+                    <c:v>1.748094594335158</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>47.707516255284823</c:v>
+                    <c:v>1.9939413440052181</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>61.004841698130043</c:v>
+                    <c:v>2.496176217749694</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>59.184305372484268</c:v>
+                    <c:v>2.3063284719241879</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.613582092790118</c:v>
+                    <c:v>1.6923382574939849</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>98.055387793292468</c:v>
+                    <c:v>2.0937984136193721</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>33.684412984556907</c:v>
+                    <c:v>28.166182284451839</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>52.110211433354003</c:v>
+                    <c:v>1.898511762823778</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>47.154079611741658</c:v>
+                    <c:v>22.298806843289821</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>72.080161108895794</c:v>
+                    <c:v>2.224035521299065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -706,64 +706,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.07525959063714</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.034063544529189</c:v>
+                    <c:v>3.3017334462369909</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.71761789453857</c:v>
+                    <c:v>5.298888772395796</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3362659737430462</c:v>
+                    <c:v>3.738197886348448</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0081926343387559</c:v>
+                    <c:v>2.688664910322593</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.2325759972194934</c:v>
+                    <c:v>3.371072921028095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3314820781648313</c:v>
+                    <c:v>2.658169444546072</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0349354141383742</c:v>
+                    <c:v>2.231538059136569</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6262996852414604</c:v>
+                    <c:v>2.9003273016661621</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.2580088950118453</c:v>
+                    <c:v>2.1797474624368758</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>61.631361220556869</c:v>
+                    <c:v>1.748094594335158</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>47.707516255284823</c:v>
+                    <c:v>1.9939413440052181</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>61.004841698130043</c:v>
+                    <c:v>2.496176217749694</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>59.184305372484268</c:v>
+                    <c:v>2.3063284719241879</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.613582092790118</c:v>
+                    <c:v>1.6923382574939849</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>98.055387793292468</c:v>
+                    <c:v>2.0937984136193721</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>33.684412984556907</c:v>
+                    <c:v>28.166182284451839</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>52.110211433354003</c:v>
+                    <c:v>1.898511762823778</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>47.154079611741658</c:v>
+                    <c:v>22.298806843289821</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>72.080161108895794</c:v>
+                    <c:v>2.224035521299065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -857,64 +857,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>91.655000000000001</c:v>
+                  <c:v>50.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.032499999999999</c:v>
+                  <c:v>47.657500000000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.2</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.408749999999998</c:v>
+                  <c:v>52.448749999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.405999999999992</c:v>
+                  <c:v>39.860999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.75333333333333</c:v>
+                  <c:v>50.114166666666662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.76</c:v>
+                  <c:v>42.746428571428567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.674375</c:v>
+                  <c:v>44.698124999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.603333333333325</c:v>
+                  <c:v>49.007222222222218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.300500000000014</c:v>
+                  <c:v>48.338999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.0206818181818</c:v>
+                  <c:v>45.109090909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.92020833333331</c:v>
+                  <c:v>51.095833333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127.4221153846154</c:v>
+                  <c:v>54.140384615384619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.52892857142859</c:v>
+                  <c:v>55.398571428571429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.617333333333335</c:v>
+                  <c:v>51.043666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.69593750000001</c:v>
+                  <c:v>50.549374999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99.985588235294117</c:v>
+                  <c:v>61.153823529411767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.8879166666667</c:v>
+                  <c:v>56.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.38552631578951</c:v>
+                  <c:v>54.187105263157903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122.51537500000001</c:v>
+                  <c:v>62.084000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,64 +1030,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.2</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8</c:v>
+                  <c:v>25.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.675000000000001</c:v>
+                  <c:v>23.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.3</c:v>
+                  <c:v>20.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.366666666666671</c:v>
+                  <c:v>23.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.714285714285719</c:v>
+                  <c:v>22.38571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.087499999999999</c:v>
+                  <c:v>23.925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62222222222222</c:v>
+                  <c:v>24.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.73</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.618181818181821</c:v>
+                  <c:v>23.40909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.583333333333329</c:v>
+                  <c:v>24.983333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.838461538461541</c:v>
+                  <c:v>25.91538461538461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.25714285714286</c:v>
+                  <c:v>26.06428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.32</c:v>
+                  <c:v>23.77333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.675000000000001</c:v>
+                  <c:v>22.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.764705882352938</c:v>
+                  <c:v>24.794117647058819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.977777777777781</c:v>
+                  <c:v>25.233333333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.147368421052629</c:v>
+                  <c:v>23.068421052631582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.6</c:v>
+                  <c:v>25.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,64 +1482,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.25542856144135467</c:v>
+                    <c:v>0.1595109714094928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.9981201080030403</c:v>
+                    <c:v>0.35450449574018061</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6372944698390679</c:v>
+                    <c:v>0.44225118553952042</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4426115838125</c:v>
+                    <c:v>1.0803571096517111</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.059235120055205</c:v>
+                    <c:v>0.63662862015463961</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.404255889283621</c:v>
+                    <c:v>4.146990855996938</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>17.841585362287621</c:v>
+                    <c:v>5.7575442854553529</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>15.50148150366905</c:v>
+                    <c:v>4.5606187795455719</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>14.95716513544224</c:v>
+                    <c:v>7.255141721863259</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>16.460012589226661</c:v>
+                    <c:v>7.1409787450670938</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13.69652323433497</c:v>
+                    <c:v>5.0633780281335037</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.95936855749229</c:v>
+                    <c:v>9.6662129899825988</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>18.92700670479234</c:v>
+                    <c:v>9.3721919660515223</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.703023836865739</c:v>
+                    <c:v>9.872140867416876</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.286502454548501</c:v>
+                    <c:v>7.1675511682861401</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.254303469903899</c:v>
+                    <c:v>8.958423693827223</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>19.21147094620698</c:v>
+                    <c:v>10.34929604947714</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>28.526312565153159</c:v>
+                    <c:v>12.047201147087859</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>25.944771952600341</c:v>
+                    <c:v>10.863460926898449</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.569599978804851</c:v>
+                    <c:v>8.3671161166422809</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1551,64 +1551,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.25542856144135467</c:v>
+                    <c:v>0.1595109714094928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.9981201080030403</c:v>
+                    <c:v>0.35450449574018061</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6372944698390679</c:v>
+                    <c:v>0.44225118553952042</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4426115838125</c:v>
+                    <c:v>1.0803571096517111</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.059235120055205</c:v>
+                    <c:v>0.63662862015463961</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.404255889283621</c:v>
+                    <c:v>4.146990855996938</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>17.841585362287621</c:v>
+                    <c:v>5.7575442854553529</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>15.50148150366905</c:v>
+                    <c:v>4.5606187795455719</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>14.95716513544224</c:v>
+                    <c:v>7.255141721863259</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>16.460012589226661</c:v>
+                    <c:v>7.1409787450670938</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13.69652323433497</c:v>
+                    <c:v>5.0633780281335037</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.95936855749229</c:v>
+                    <c:v>9.6662129899825988</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>18.92700670479234</c:v>
+                    <c:v>9.3721919660515223</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.703023836865739</c:v>
+                    <c:v>9.872140867416876</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.286502454548501</c:v>
+                    <c:v>7.1675511682861401</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.254303469903899</c:v>
+                    <c:v>8.958423693827223</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>19.21147094620698</c:v>
+                    <c:v>10.34929604947714</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>28.526312565153159</c:v>
+                    <c:v>12.047201147087859</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>25.944771952600341</c:v>
+                    <c:v>10.863460926898449</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.569599978804851</c:v>
+                    <c:v>8.3671161166422809</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1702,64 +1702,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>31.302499999999998</c:v>
+                  <c:v>26.982500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1525</c:v>
+                  <c:v>31.053750000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.833333333333329</c:v>
+                  <c:v>27.528333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.52375</c:v>
+                  <c:v>26.780625000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.94</c:v>
+                  <c:v>23.382000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.374583333333327</c:v>
+                  <c:v>36.788750000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.386071428571427</c:v>
+                  <c:v>40.563928571428583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.37718750000001</c:v>
+                  <c:v>41.8984375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106.1622222222222</c:v>
+                  <c:v>52.956944444444453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.28825000000001</c:v>
+                  <c:v>60.602250000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103.0465909090909</c:v>
+                  <c:v>50.88340909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129.36583333333331</c:v>
+                  <c:v>63.304375000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.37326923076921</c:v>
+                  <c:v>84.265384615384619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>141.5994642857143</c:v>
+                  <c:v>82.481428571428566</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143.30466666666669</c:v>
+                  <c:v>78.357833333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.09062499999999</c:v>
+                  <c:v>72.799374999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188.90294117647059</c:v>
+                  <c:v>99.564117647058822</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.23805555555549</c:v>
+                  <c:v>108.4469444444444</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>224.5667105263158</c:v>
+                  <c:v>100.5718421052632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.322</c:v>
+                  <c:v>117.156875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,64 +1810,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.08071269142919</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.02309271021047</c:v>
+                    <c:v>3.3152429680944961</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.70626345105207</c:v>
+                    <c:v>5.305717500437094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3338399890081467</c:v>
+                    <c:v>3.7520117520471601</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.018378997318397</c:v>
+                    <c:v>2.700825799639806</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.244915075033278</c:v>
+                    <c:v>3.3933492703866079</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3562188333271594</c:v>
+                    <c:v>2.693434738169</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0548149177603712</c:v>
+                    <c:v>2.2906306275510682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6637104489356371</c:v>
+                    <c:v>2.9102384188105601</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.36699450423286</c:v>
+                    <c:v>2.1983994035434051</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>89.758543183254503</c:v>
+                    <c:v>1.770376632081855</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>64.068736977895142</c:v>
+                    <c:v>2.0298214100253311</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>85.313685592472808</c:v>
+                    <c:v>2.5694627299134352</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>79.898867349885776</c:v>
+                    <c:v>2.4976781054345949</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>68.829472014174272</c:v>
+                    <c:v>1.819373144489302</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>132.7864576232268</c:v>
+                    <c:v>2.1933532404745022</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>48.167479372680972</c:v>
+                    <c:v>41.377048674439322</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>89.944275228784448</c:v>
+                    <c:v>2.06264541200833</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>80.988743446726218</c:v>
+                    <c:v>32.149221879140569</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>106.36452961036581</c:v>
+                    <c:v>2.6570248399290519</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1879,64 +1879,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.08071269142919</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.02309271021047</c:v>
+                    <c:v>3.3152429680944961</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.70626345105207</c:v>
+                    <c:v>5.305717500437094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3338399890081467</c:v>
+                    <c:v>3.7520117520471601</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.018378997318397</c:v>
+                    <c:v>2.700825799639806</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.244915075033278</c:v>
+                    <c:v>3.3933492703866079</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3562188333271594</c:v>
+                    <c:v>2.693434738169</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0548149177603712</c:v>
+                    <c:v>2.2906306275510682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6637104489356371</c:v>
+                    <c:v>2.9102384188105601</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.36699450423286</c:v>
+                    <c:v>2.1983994035434051</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>89.758543183254503</c:v>
+                    <c:v>1.770376632081855</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>64.068736977895142</c:v>
+                    <c:v>2.0298214100253311</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>85.313685592472808</c:v>
+                    <c:v>2.5694627299134352</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>79.898867349885776</c:v>
+                    <c:v>2.4976781054345949</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>68.829472014174272</c:v>
+                    <c:v>1.819373144489302</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>132.7864576232268</c:v>
+                    <c:v>2.1933532404745022</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>48.167479372680972</c:v>
+                    <c:v>41.377048674439322</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>89.944275228784448</c:v>
+                    <c:v>2.06264541200833</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>80.988743446726218</c:v>
+                    <c:v>32.149221879140569</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>106.36452961036581</c:v>
+                    <c:v>2.6570248399290519</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2030,64 +2030,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>92.655000000000001</c:v>
+                  <c:v>51.892499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.075000000000003</c:v>
+                  <c:v>48.681249999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.335833333333341</c:v>
+                  <c:v>51.899166666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.434375000000003</c:v>
+                  <c:v>53.523749999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.522500000000001</c:v>
+                  <c:v>40.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.83</c:v>
+                  <c:v>51.262083333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.139285714285705</c:v>
+                  <c:v>43.96892857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.076875</c:v>
+                  <c:v>46.060625000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.162222222222226</c:v>
+                  <c:v>50.422222222222217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.968000000000004</c:v>
+                  <c:v>49.764750000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.1409090909091</c:v>
+                  <c:v>46.570681818181818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.371875</c:v>
+                  <c:v>52.919375000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135.62442307692311</c:v>
+                  <c:v>56.301346153846147</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.47125</c:v>
+                  <c:v>58.054999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.2848333333333</c:v>
+                  <c:v>53.282166666666669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.82499999999999</c:v>
+                  <c:v>53.143124999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105.8326470588235</c:v>
+                  <c:v>67.163235294117655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136.57458333333341</c:v>
+                  <c:v>59.727499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.7669736842105</c:v>
+                  <c:v>58.251447368421047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.33837500000001</c:v>
+                  <c:v>66.964500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,64 +2203,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.2</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8</c:v>
+                  <c:v>25.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.675000000000001</c:v>
+                  <c:v>23.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.3</c:v>
+                  <c:v>20.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.366666666666671</c:v>
+                  <c:v>23.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.714285714285719</c:v>
+                  <c:v>22.38571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.087499999999999</c:v>
+                  <c:v>23.925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62222222222222</c:v>
+                  <c:v>24.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.73</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.618181818181821</c:v>
+                  <c:v>23.40909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.583333333333329</c:v>
+                  <c:v>24.983333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.838461538461541</c:v>
+                  <c:v>25.91538461538461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.25714285714286</c:v>
+                  <c:v>26.06428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.32</c:v>
+                  <c:v>23.77333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.675000000000001</c:v>
+                  <c:v>22.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.764705882352938</c:v>
+                  <c:v>24.794117647058819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.977777777777781</c:v>
+                  <c:v>25.233333333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.147368421052629</c:v>
+                  <c:v>23.068421052631582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.6</c:v>
+                  <c:v>25.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,64 +2647,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>85.44290341268713</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2716,64 +2716,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>85.44290341268713</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2867,64 +2867,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>39.024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.9</c:v>
+                  <c:v>46.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.375</c:v>
+                  <c:v>46.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.52500000000001</c:v>
+                  <c:v>56.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.4</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.575</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.35000000000002</c:v>
+                  <c:v>122.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.45</c:v>
+                  <c:v>112.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.52499999999998</c:v>
+                  <c:v>172.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344.17500000000001</c:v>
+                  <c:v>192.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346.22500000000002</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416.625</c:v>
+                  <c:v>219.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507.55</c:v>
+                  <c:v>265.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>496.2</c:v>
+                  <c:v>255.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>503.75</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>721.65</c:v>
+                  <c:v>269.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>644.27499999999998</c:v>
+                  <c:v>315.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>718.97500000000002</c:v>
+                  <c:v>380.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>761.95</c:v>
+                  <c:v>351.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>626.17499999999995</c:v>
+                  <c:v>381.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,64 +2974,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>158.15664905727371</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>108.77284905852059</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>131.31644838094203</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>163.26234197662453</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>166.07436548665439</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>185.49179088892177</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>107.56211979774582</c:v>
+                    <c:v>135.31069423500483</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>165.68149084993297</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>146.89189946421541</c:v>
+                    <c:v>57.142444595580415</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>208.5606349758709</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3043,64 +3043,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>158.15664905727371</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>108.77284905852059</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>131.31644838094203</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>163.26234197662453</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>166.07436548665439</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>185.49179088892177</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>107.56211979774582</c:v>
+                    <c:v>135.31069423500483</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>165.68149084993297</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>146.89189946421541</c:v>
+                    <c:v>57.142444595580415</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>208.5606349758709</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3194,64 +3194,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>335.15</c:v>
+                  <c:v>154.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489.9</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>439.6</c:v>
+                  <c:v>213.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.95</c:v>
+                  <c:v>231.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.4</c:v>
+                  <c:v>198.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.25</c:v>
+                  <c:v>272.72500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544.9</c:v>
+                  <c:v>236.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571.67499999999995</c:v>
+                  <c:v>234.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601.25</c:v>
+                  <c:v>241.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>590.9</c:v>
+                  <c:v>229.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>558.25</c:v>
+                  <c:v>221.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>588.17499999999995</c:v>
+                  <c:v>250.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>567.875</c:v>
+                  <c:v>258.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>564.65</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>619.85</c:v>
+                  <c:v>257.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>581.22500000000002</c:v>
+                  <c:v>293.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>621.07500000000005</c:v>
+                  <c:v>313.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.54999999999995</c:v>
+                  <c:v>297.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>650.27499999999998</c:v>
+                  <c:v>297.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>590.5</c:v>
+                  <c:v>308.22500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,7 +3687,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.316227766016838</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>0</c:v>
@@ -3756,7 +3756,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.316227766016838</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>0</c:v>
@@ -3907,7 +3907,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.94999999999999</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>170</c:v>
@@ -3999,34 +3999,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>12.272441505781199</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4868329805051381</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>14.214835154216143</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>14.284651975154384</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>12.912302819503735</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.272121108259789</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>10.435516278555646</c:v>
+                    <c:v>7.1814843833791038</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>21.015928025410467</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>19.607543681725328</c:v>
+                    <c:v>6.4826692033451785</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>27.342274960214954</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4068,34 +4068,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>12.272441505781199</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4868329805051381</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>14.214835154216143</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>14.284651975154384</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>12.912302819503735</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.272121108259789</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>10.435516278555646</c:v>
+                    <c:v>7.1814843833791038</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>21.015928025410467</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>19.607543681725328</c:v>
+                    <c:v>6.4826692033451785</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>27.342274960214954</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4219,34 +4219,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.55</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.5</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126.8</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147.125</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>151.02500000000001</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168.35</c:v>
+                  <c:v>168.375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174.15</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>185.57499999999999</c:v>
+                  <c:v>188.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189.8</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,64 +4628,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>95.696873860469594</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4697,64 +4697,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>95.696873860469594</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4848,64 +4848,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>39.024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.9</c:v>
+                  <c:v>46.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.375</c:v>
+                  <c:v>46.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.52500000000001</c:v>
+                  <c:v>56.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.4</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.575</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.35000000000002</c:v>
+                  <c:v>122.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.45</c:v>
+                  <c:v>112.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.52499999999998</c:v>
+                  <c:v>172.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344.17500000000001</c:v>
+                  <c:v>192.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346.22500000000002</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416.625</c:v>
+                  <c:v>219.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507.55</c:v>
+                  <c:v>265.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>496.2</c:v>
+                  <c:v>255.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>503.75</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>729.82500000000005</c:v>
+                  <c:v>269.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>644.27499999999998</c:v>
+                  <c:v>315.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>718.97500000000002</c:v>
+                  <c:v>380.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>761.95</c:v>
+                  <c:v>351.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>626.17499999999995</c:v>
+                  <c:v>381.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4955,64 +4955,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>122.00251153362717</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>89.775071492806134</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>107.82340738210405</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>127.58681056742985</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>127.31511481964121</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>128.28851448480458</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>88.147570759319507</c:v>
+                    <c:v>163.12436462200651</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>118.13894470668973</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>99.015587350990046</c:v>
+                    <c:v>119.41605784732167</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>125.18769497981395</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5024,64 +5024,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>122.00251153362717</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>89.775071492806134</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>107.82340738210405</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>127.58681056742985</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>127.31511481964121</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>128.28851448480458</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>88.147570759319507</c:v>
+                    <c:v>163.12436462200651</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>118.13894470668973</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>99.015587350990046</c:v>
+                    <c:v>119.41605784732167</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>125.18769497981395</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5175,64 +5175,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>335.15</c:v>
+                  <c:v>154.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489.9</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>439.6</c:v>
+                  <c:v>213.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.95</c:v>
+                  <c:v>231.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.4</c:v>
+                  <c:v>198.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.25</c:v>
+                  <c:v>272.72500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544.9</c:v>
+                  <c:v>236.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571.67499999999995</c:v>
+                  <c:v>234.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601.25</c:v>
+                  <c:v>241.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>590.9</c:v>
+                  <c:v>229.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>629.54999999999995</c:v>
+                  <c:v>221.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>612.02499999999998</c:v>
+                  <c:v>250.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>614.6</c:v>
+                  <c:v>258.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>635.375</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>667.2</c:v>
+                  <c:v>257.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>674.42499999999995</c:v>
+                  <c:v>293.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>643.57500000000005</c:v>
+                  <c:v>319.67500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.1</c:v>
+                  <c:v>297.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>695.625</c:v>
+                  <c:v>308.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>707.3</c:v>
+                  <c:v>308.22500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9265,8 +9265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,7 +9291,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -9320,37 +9320,37 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>30.835000000000001</v>
+        <v>26.76</v>
       </c>
       <c r="C3">
-        <v>0.19435791725576759</v>
+        <v>7.999999999999971E-2</v>
       </c>
       <c r="D3">
-        <v>31.302499999999998</v>
+        <v>26.982500000000002</v>
       </c>
       <c r="E3">
-        <v>0.25542856144135467</v>
+        <v>0.1595109714094928</v>
       </c>
       <c r="F3">
-        <v>30.2</v>
+        <v>26.4</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>91.655000000000001</v>
+        <v>50.875</v>
       </c>
       <c r="J3">
-        <v>23.327751177513871</v>
+        <v>11.07525959063714</v>
       </c>
       <c r="K3">
-        <v>92.655000000000001</v>
+        <v>51.892499999999998</v>
       </c>
       <c r="L3">
-        <v>23.327751177513871</v>
+        <v>11.08071269142919</v>
       </c>
       <c r="M3">
-        <v>30.2</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9358,37 +9358,37 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24.13</v>
+        <v>30.5275</v>
       </c>
       <c r="C4">
-        <v>0.47391982444291142</v>
+        <v>0.20123058912600719</v>
       </c>
       <c r="D4">
-        <v>25.1525</v>
+        <v>31.053750000000001</v>
       </c>
       <c r="E4">
-        <v>0.9981201080030403</v>
+        <v>0.35450449574018061</v>
       </c>
       <c r="F4">
-        <v>23.2</v>
+        <v>29.8</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4">
-        <v>70.032499999999999</v>
+        <v>47.657500000000013</v>
       </c>
       <c r="J4">
-        <v>16.034063544529189</v>
+        <v>3.3017334462369909</v>
       </c>
       <c r="K4">
-        <v>71.075000000000003</v>
+        <v>48.681249999999999</v>
       </c>
       <c r="L4">
-        <v>16.02309271021047</v>
+        <v>3.3152429680944961</v>
       </c>
       <c r="M4">
-        <v>23.2</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9396,37 +9396,37 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29.875</v>
+        <v>26.855</v>
       </c>
       <c r="C5">
-        <v>2.0922708290807441</v>
+        <v>0.20214818547018601</v>
       </c>
       <c r="D5">
-        <v>36.833333333333329</v>
+        <v>27.528333333333329</v>
       </c>
       <c r="E5">
-        <v>4.6372944698390679</v>
+        <v>0.44225118553952042</v>
       </c>
       <c r="F5">
-        <v>23.8</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5">
-        <v>71.2</v>
+        <v>50.833333333333329</v>
       </c>
       <c r="J5">
-        <v>10.71761789453857</v>
+        <v>5.298888772395796</v>
       </c>
       <c r="K5">
-        <v>72.335833333333341</v>
+        <v>51.899166666666673</v>
       </c>
       <c r="L5">
-        <v>10.70626345105207</v>
+        <v>5.305717500437094</v>
       </c>
       <c r="M5">
-        <v>23.8</v>
+        <v>25.93333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -9434,37 +9434,37 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30.591249999999999</v>
+        <v>25.171250000000001</v>
       </c>
       <c r="C6">
-        <v>3.379966484671113</v>
+        <v>0.51579883433369655</v>
       </c>
       <c r="D6">
-        <v>41.52375</v>
+        <v>26.780625000000001</v>
       </c>
       <c r="E6">
-        <v>7.4426115838125</v>
+        <v>1.0803571096517111</v>
       </c>
       <c r="F6">
-        <v>20.675000000000001</v>
+        <v>23.175000000000001</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6">
-        <v>88.408749999999998</v>
+        <v>52.448749999999997</v>
       </c>
       <c r="J6">
-        <v>7.3362659737430462</v>
+        <v>3.738197886348448</v>
       </c>
       <c r="K6">
-        <v>89.434375000000003</v>
+        <v>53.523749999999993</v>
       </c>
       <c r="L6">
-        <v>7.3338399890081467</v>
+        <v>3.7520117520471601</v>
       </c>
       <c r="M6">
-        <v>20.675000000000001</v>
+        <v>23.175000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9472,37 +9472,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>31.91</v>
+        <v>22.094000000000001</v>
       </c>
       <c r="C7">
-        <v>2.4236955254321861</v>
+        <v>0.29482876386133028</v>
       </c>
       <c r="D7">
-        <v>41.94</v>
+        <v>23.382000000000001</v>
       </c>
       <c r="E7">
-        <v>5.059235120055205</v>
+        <v>0.63662862015463961</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>20.66</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>60.405999999999992</v>
+        <v>39.860999999999997</v>
       </c>
       <c r="J7">
-        <v>7.0081926343387559</v>
+        <v>2.688664910322593</v>
       </c>
       <c r="K7">
-        <v>61.522500000000001</v>
+        <v>40.93</v>
       </c>
       <c r="L7">
-        <v>7.018378997318397</v>
+        <v>2.700825799639806</v>
       </c>
       <c r="M7">
-        <v>22.3</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9510,37 +9510,37 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>26.619166666666661</v>
+        <v>30.095833333333331</v>
       </c>
       <c r="C8">
-        <v>1.5646065799427029</v>
+        <v>1.8724269381978269</v>
       </c>
       <c r="D8">
-        <v>32.374583333333327</v>
+        <v>36.788750000000007</v>
       </c>
       <c r="E8">
-        <v>3.404255889283621</v>
+        <v>4.146990855996938</v>
       </c>
       <c r="F8">
-        <v>21.366666666666671</v>
+        <v>23.95</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8">
-        <v>53.75333333333333</v>
+        <v>50.114166666666662</v>
       </c>
       <c r="J8">
-        <v>7.2325759972194934</v>
+        <v>3.371072921028095</v>
       </c>
       <c r="K8">
-        <v>54.83</v>
+        <v>51.262083333333337</v>
       </c>
       <c r="L8">
-        <v>7.244915075033278</v>
+        <v>3.3933492703866079</v>
       </c>
       <c r="M8">
-        <v>21.366666666666671</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9548,37 +9548,37 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>57.341428571428573</v>
+        <v>31.246428571428581</v>
       </c>
       <c r="C9">
-        <v>9.4750455278643404</v>
+        <v>2.7023435596322161</v>
       </c>
       <c r="D9">
-        <v>90.386071428571427</v>
+        <v>40.563928571428583</v>
       </c>
       <c r="E9">
-        <v>17.841585362287621</v>
+        <v>5.7575442854553529</v>
       </c>
       <c r="F9">
-        <v>23.714285714285719</v>
+        <v>22.38571428571429</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9">
-        <v>82.76</v>
+        <v>42.746428571428567</v>
       </c>
       <c r="J9">
-        <v>6.3314820781648313</v>
+        <v>2.658169444546072</v>
       </c>
       <c r="K9">
-        <v>84.139285714285705</v>
+        <v>43.96892857142857</v>
       </c>
       <c r="L9">
-        <v>6.3562188333271594</v>
+        <v>2.693434738169</v>
       </c>
       <c r="M9">
-        <v>23.714285714285719</v>
+        <v>22.38571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,37 +9586,37 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>65.791875000000005</v>
+        <v>32.480625000000003</v>
       </c>
       <c r="C10">
-        <v>8.4261106231982854</v>
+        <v>2.1914855656323629</v>
       </c>
       <c r="D10">
-        <v>103.37718750000001</v>
+        <v>41.8984375</v>
       </c>
       <c r="E10">
-        <v>15.50148150366905</v>
+        <v>4.5606187795455719</v>
       </c>
       <c r="F10">
-        <v>25.087499999999999</v>
+        <v>23.925000000000001</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10">
-        <v>101.674375</v>
+        <v>44.698124999999997</v>
       </c>
       <c r="J10">
-        <v>8.0349354141383742</v>
+        <v>2.231538059136569</v>
       </c>
       <c r="K10">
-        <v>103.076875</v>
+        <v>46.060625000000002</v>
       </c>
       <c r="L10">
-        <v>8.0548149177603712</v>
+        <v>2.2906306275510682</v>
       </c>
       <c r="M10">
-        <v>25.087499999999999</v>
+        <v>23.925000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9624,37 +9624,37 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>67.290000000000006</v>
+        <v>38.348888888888887</v>
       </c>
       <c r="C11">
-        <v>8.1640675380249093</v>
+        <v>3.4814684002906331</v>
       </c>
       <c r="D11">
-        <v>106.1622222222222</v>
+        <v>52.956944444444453</v>
       </c>
       <c r="E11">
-        <v>14.95716513544224</v>
+        <v>7.255141721863259</v>
       </c>
       <c r="F11">
-        <v>23.62222222222222</v>
+        <v>24.966666666666669</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11">
-        <v>89.603333333333325</v>
+        <v>49.007222222222218</v>
       </c>
       <c r="J11">
-        <v>5.6262996852414604</v>
+        <v>2.9003273016661621</v>
       </c>
       <c r="K11">
-        <v>91.162222222222226</v>
+        <v>50.422222222222217</v>
       </c>
       <c r="L11">
-        <v>5.6637104489356371</v>
+        <v>2.9102384188105601</v>
       </c>
       <c r="M11">
-        <v>23.62222222222222</v>
+        <v>24.966666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9662,37 +9662,37 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>70.353999999999999</v>
+        <v>42.695000000000007</v>
       </c>
       <c r="C12">
-        <v>9.3878253072796376</v>
+        <v>3.4881305881517681</v>
       </c>
       <c r="D12">
-        <v>110.28825000000001</v>
+        <v>60.602250000000012</v>
       </c>
       <c r="E12">
-        <v>16.460012589226661</v>
+        <v>7.1409787450670938</v>
       </c>
       <c r="F12">
-        <v>24.73</v>
+        <v>25.94</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>76.300500000000014</v>
+        <v>48.338999999999999</v>
       </c>
       <c r="J12">
-        <v>4.2580088950118453</v>
+        <v>2.1797474624368758</v>
       </c>
       <c r="K12">
-        <v>77.968000000000004</v>
+        <v>49.764750000000006</v>
       </c>
       <c r="L12">
-        <v>4.36699450423286</v>
+        <v>2.1983994035434051</v>
       </c>
       <c r="M12">
-        <v>24.73</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9700,37 +9700,37 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>66.369090909090914</v>
+        <v>36.604999999999997</v>
       </c>
       <c r="C13">
-        <v>7.8524578454695328</v>
+        <v>2.421902426530921</v>
       </c>
       <c r="D13">
-        <v>103.0465909090909</v>
+        <v>50.88340909090909</v>
       </c>
       <c r="E13">
-        <v>13.69652323433497</v>
+        <v>5.0633780281335037</v>
       </c>
       <c r="F13">
-        <v>24.618181818181821</v>
+        <v>23.40909090909091</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13">
-        <v>106.0206818181818</v>
+        <v>45.109090909090909</v>
       </c>
       <c r="J13">
-        <v>61.631361220556869</v>
+        <v>1.748094594335158</v>
       </c>
       <c r="K13">
-        <v>116.1409090909091</v>
+        <v>46.570681818181818</v>
       </c>
       <c r="L13">
-        <v>89.758543183254503</v>
+        <v>1.770376632081855</v>
       </c>
       <c r="M13">
-        <v>24.618181818181821</v>
+        <v>23.40909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9738,37 +9738,37 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>82.610416666666666</v>
+        <v>43.767916666666657</v>
       </c>
       <c r="C14">
-        <v>8.6918310047583063</v>
+        <v>4.9110255597595014</v>
       </c>
       <c r="D14">
-        <v>129.36583333333331</v>
+        <v>63.304375000000007</v>
       </c>
       <c r="E14">
-        <v>14.95936855749229</v>
+        <v>9.6662129899825988</v>
       </c>
       <c r="F14">
-        <v>24.583333333333329</v>
+        <v>24.983333333333331</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>105.92020833333331</v>
+        <v>51.095833333333339</v>
       </c>
       <c r="J14">
-        <v>47.707516255284823</v>
+        <v>1.9939413440052181</v>
       </c>
       <c r="K14">
-        <v>110.371875</v>
+        <v>52.919375000000002</v>
       </c>
       <c r="L14">
-        <v>64.068736977895142</v>
+        <v>2.0298214100253311</v>
       </c>
       <c r="M14">
-        <v>24.583333333333329</v>
+        <v>24.983333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9776,37 +9776,37 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>106.0857692307693</v>
+        <v>54.369230769230761</v>
       </c>
       <c r="C15">
-        <v>11.667105626427871</v>
+        <v>4.6422206989491004</v>
       </c>
       <c r="D15">
-        <v>166.37326923076921</v>
+        <v>84.265384615384619</v>
       </c>
       <c r="E15">
-        <v>18.92700670479234</v>
+        <v>9.3721919660515223</v>
       </c>
       <c r="F15">
-        <v>24.838461538461541</v>
+        <v>25.91538461538461</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15">
-        <v>127.4221153846154</v>
+        <v>54.140384615384619</v>
       </c>
       <c r="J15">
-        <v>61.004841698130043</v>
+        <v>2.496176217749694</v>
       </c>
       <c r="K15">
-        <v>135.62442307692311</v>
+        <v>56.301346153846147</v>
       </c>
       <c r="L15">
-        <v>85.313685592472808</v>
+        <v>2.5694627299134352</v>
       </c>
       <c r="M15">
-        <v>24.838461538461541</v>
+        <v>25.91538461538461</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,37 +9814,37 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>90.408928571428575</v>
+        <v>53.847142857142863</v>
       </c>
       <c r="C16">
-        <v>9.3779902374046618</v>
+        <v>5.1569471668451916</v>
       </c>
       <c r="D16">
-        <v>141.5994642857143</v>
+        <v>82.481428571428566</v>
       </c>
       <c r="E16">
-        <v>15.703023836865739</v>
+        <v>9.872140867416876</v>
       </c>
       <c r="F16">
-        <v>24.25714285714286</v>
+        <v>26.06428571428571</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
       <c r="I16">
-        <v>108.52892857142859</v>
+        <v>55.398571428571429</v>
       </c>
       <c r="J16">
-        <v>59.184305372484268</v>
+        <v>2.3063284719241879</v>
       </c>
       <c r="K16">
-        <v>116.47125</v>
+        <v>58.054999999999993</v>
       </c>
       <c r="L16">
-        <v>79.898867349885776</v>
+        <v>2.4976781054345949</v>
       </c>
       <c r="M16">
-        <v>24.25714285714286</v>
+        <v>26.06428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9852,37 +9852,37 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>91.795000000000002</v>
+        <v>50.600333333333332</v>
       </c>
       <c r="C17">
-        <v>10.47412205283945</v>
+        <v>3.6448337715487411</v>
       </c>
       <c r="D17">
-        <v>143.30466666666669</v>
+        <v>78.357833333333332</v>
       </c>
       <c r="E17">
-        <v>17.286502454548501</v>
+        <v>7.1675511682861401</v>
       </c>
       <c r="F17">
-        <v>23.32</v>
+        <v>23.77333333333333</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>95.617333333333335</v>
+        <v>51.043666666666667</v>
       </c>
       <c r="J17">
-        <v>39.613582092790118</v>
+        <v>1.6923382574939849</v>
       </c>
       <c r="K17">
-        <v>104.2848333333333</v>
+        <v>53.282166666666669</v>
       </c>
       <c r="L17">
-        <v>68.829472014174272</v>
+        <v>1.819373144489302</v>
       </c>
       <c r="M17">
-        <v>23.32</v>
+        <v>23.77333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9890,37 +9890,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>160.11296874999999</v>
+        <v>47.704062500000013</v>
       </c>
       <c r="C18">
-        <v>15.938507344849951</v>
+        <v>4.6984928496906067</v>
       </c>
       <c r="D18">
-        <v>249.09062499999999</v>
+        <v>72.799374999999998</v>
       </c>
       <c r="E18">
-        <v>25.254303469903899</v>
+        <v>8.958423693827223</v>
       </c>
       <c r="F18">
-        <v>26.675000000000001</v>
+        <v>22.831250000000001</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18">
-        <v>157.69593750000001</v>
+        <v>50.549374999999998</v>
       </c>
       <c r="J18">
-        <v>98.055387793292468</v>
+        <v>2.0937984136193721</v>
       </c>
       <c r="K18">
-        <v>172.82499999999999</v>
+        <v>53.143124999999998</v>
       </c>
       <c r="L18">
-        <v>132.7864576232268</v>
+        <v>2.1933532404745022</v>
       </c>
       <c r="M18">
-        <v>26.675000000000001</v>
+        <v>22.831250000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9928,37 +9928,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>120.7623529411765</v>
+        <v>63.158529411764697</v>
       </c>
       <c r="C19">
-        <v>12.14749812622515</v>
+        <v>5.8053200082272696</v>
       </c>
       <c r="D19">
-        <v>188.90294117647059</v>
+        <v>99.564117647058822</v>
       </c>
       <c r="E19">
-        <v>19.21147094620698</v>
+        <v>10.34929604947714</v>
       </c>
       <c r="F19">
-        <v>23.764705882352938</v>
+        <v>24.794117647058819</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19">
-        <v>99.985588235294117</v>
+        <v>61.153823529411767</v>
       </c>
       <c r="J19">
-        <v>33.684412984556907</v>
+        <v>28.166182284451839</v>
       </c>
       <c r="K19">
-        <v>105.8326470588235</v>
+        <v>67.163235294117655</v>
       </c>
       <c r="L19">
-        <v>48.167479372680972</v>
+        <v>41.377048674439322</v>
       </c>
       <c r="M19">
-        <v>23.764705882352938</v>
+        <v>24.794117647058819</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9966,37 +9966,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>137.25416666666669</v>
+        <v>68.381944444444429</v>
       </c>
       <c r="C20">
-        <v>18.380561758012821</v>
+        <v>6.8231729736986981</v>
       </c>
       <c r="D20">
-        <v>213.23805555555549</v>
+        <v>108.4469444444444</v>
       </c>
       <c r="E20">
-        <v>28.526312565153159</v>
+        <v>12.047201147087859</v>
       </c>
       <c r="F20">
-        <v>23.977777777777781</v>
+        <v>25.233333333333331</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
       <c r="I20">
-        <v>120.8879166666667</v>
+        <v>56.33</v>
       </c>
       <c r="J20">
-        <v>52.110211433354003</v>
+        <v>1.898511762823778</v>
       </c>
       <c r="K20">
-        <v>136.57458333333341</v>
+        <v>59.727499999999999</v>
       </c>
       <c r="L20">
-        <v>89.944275228784448</v>
+        <v>2.06264541200833</v>
       </c>
       <c r="M20">
-        <v>23.977777777777781</v>
+        <v>25.233333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -10004,37 +10004,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>143.82526315789471</v>
+        <v>63.181315789473693</v>
       </c>
       <c r="C21">
-        <v>16.597077772358531</v>
+        <v>6.0383423949057704</v>
       </c>
       <c r="D21">
-        <v>224.5667105263158</v>
+        <v>100.5718421052632</v>
       </c>
       <c r="E21">
-        <v>25.944771952600341</v>
+        <v>10.863460926898449</v>
       </c>
       <c r="F21">
-        <v>24.147368421052629</v>
+        <v>23.068421052631582</v>
       </c>
       <c r="H21" t="s">
         <v>26</v>
       </c>
       <c r="I21">
-        <v>115.38552631578951</v>
+        <v>54.187105263157903</v>
       </c>
       <c r="J21">
-        <v>47.154079611741658</v>
+        <v>22.298806843289821</v>
       </c>
       <c r="K21">
-        <v>127.7669736842105</v>
+        <v>58.251447368421047</v>
       </c>
       <c r="L21">
-        <v>80.988743446726218</v>
+        <v>32.149221879140569</v>
       </c>
       <c r="M21">
-        <v>24.147368421052629</v>
+        <v>23.068421052631582</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -10042,37 +10042,37 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>107.52800000000001</v>
+        <v>73.496499999999997</v>
       </c>
       <c r="C22">
-        <v>10.05235847948132</v>
+        <v>4.6453576557677456</v>
       </c>
       <c r="D22">
-        <v>167.322</v>
+        <v>117.156875</v>
       </c>
       <c r="E22">
-        <v>15.569599978804851</v>
+        <v>8.3671161166422809</v>
       </c>
       <c r="F22">
-        <v>22.6</v>
+        <v>25.965</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>122.51537500000001</v>
+        <v>62.084000000000003</v>
       </c>
       <c r="J22">
-        <v>72.080161108895794</v>
+        <v>2.224035521299065</v>
       </c>
       <c r="K22">
-        <v>139.33837500000001</v>
+        <v>66.964500000000001</v>
       </c>
       <c r="L22">
-        <v>106.36452961036581</v>
+        <v>2.6570248399290519</v>
       </c>
       <c r="M22">
-        <v>22.6</v>
+        <v>25.965</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10100,25 +10100,25 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>39.024999999999999</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.15811388300841894</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27">
-        <v>335.15</v>
+        <v>154.72499999999999</v>
       </c>
       <c r="H27">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="I27">
-        <v>101.30875629758808</v>
+        <v>59.838666643241851</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -10126,25 +10126,25 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>50.9</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>5.3722935941307801</v>
+        <v>0.6975230903263786</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28">
-        <v>489.9</v>
+        <v>125.5</v>
       </c>
       <c r="H28">
-        <v>671</v>
+        <v>255</v>
       </c>
       <c r="I28">
-        <v>103.20400509024181</v>
+        <v>33.437273842992674</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -10152,25 +10152,25 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>78.375</v>
+        <v>46.85</v>
       </c>
       <c r="C29">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>13.951725378090018</v>
+        <v>4.1605596270521605</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>439.6</v>
+        <v>213.35</v>
       </c>
       <c r="H29">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="I29">
-        <v>90.872917744986978</v>
+        <v>51.703072368164882</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -10178,25 +10178,25 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>118.52500000000001</v>
+        <v>56.075000000000003</v>
       </c>
       <c r="C30">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>30.123666051964122</v>
+        <v>7.4019661282731102</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30">
-        <v>506.95</v>
+        <v>231.4</v>
       </c>
       <c r="H30">
-        <v>742</v>
+        <v>342</v>
       </c>
       <c r="I30">
-        <v>83.039672322855353</v>
+        <v>48.192349642890065</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -10204,25 +10204,25 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>121.4</v>
+        <v>54.6</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>24.370852704377434</v>
+        <v>7.9704582759214846</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>437.4</v>
+        <v>198.5</v>
       </c>
       <c r="H31">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="I31">
-        <v>97.230838201857992</v>
+        <v>46.207447507173612</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -10230,25 +10230,25 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>100.575</v>
+        <v>95.2</v>
       </c>
       <c r="C32">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D32">
-        <v>19.710582215704637</v>
+        <v>26.165351918627842</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32">
-        <v>545.25</v>
+        <v>272.72500000000002</v>
       </c>
       <c r="H32">
-        <v>782</v>
+        <v>404</v>
       </c>
       <c r="I32">
-        <v>94.34273306435044</v>
+        <v>41.987169896260433</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -10256,25 +10256,25 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>275.35000000000002</v>
+        <v>122.35</v>
       </c>
       <c r="C33">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="D33">
-        <v>55.236809540424495</v>
+        <v>32.032475508138397</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33">
-        <v>544.9</v>
+        <v>236.625</v>
       </c>
       <c r="H33">
-        <v>709</v>
+        <v>352</v>
       </c>
       <c r="I33">
-        <v>67.336811283622154</v>
+        <v>45.742695928084856</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -10282,25 +10282,25 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>318.45</v>
+        <v>112.02500000000001</v>
       </c>
       <c r="C34">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="D34">
-        <v>52.229743957309914</v>
+        <v>25.985683928478167</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
       </c>
       <c r="G34">
-        <v>571.67499999999995</v>
+        <v>234.35</v>
       </c>
       <c r="H34">
-        <v>737</v>
+        <v>360</v>
       </c>
       <c r="I34">
-        <v>84.328535639348871</v>
+        <v>49.306238228089668</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -10308,25 +10308,25 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>334.52499999999998</v>
+        <v>172.72499999999999</v>
       </c>
       <c r="C35">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D35">
-        <v>48.453513275282106</v>
+        <v>39.83812598568467</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35">
-        <v>601.25</v>
+        <v>241.97499999999999</v>
       </c>
       <c r="H35">
-        <v>749</v>
+        <v>347</v>
       </c>
       <c r="I35">
-        <v>88.49735618244226</v>
+        <v>50.429685752820305</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -10334,25 +10334,25 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>344.17500000000001</v>
+        <v>192.72499999999999</v>
       </c>
       <c r="C36">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="D36">
-        <v>60.361257527129268</v>
+        <v>43.594275971002197</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>590.9</v>
+        <v>229.85</v>
       </c>
       <c r="H36">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="I36">
-        <v>82.545651704887561</v>
+        <v>52.576952150499366</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -10360,25 +10360,25 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>346.22500000000002</v>
+        <v>156.25</v>
       </c>
       <c r="C37">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="D37">
-        <v>53.134318187314307</v>
+        <v>24.307590879372935</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37">
-        <v>558.25</v>
+        <v>221.875</v>
       </c>
       <c r="H37">
-        <v>775</v>
+        <v>348</v>
       </c>
       <c r="I37">
-        <v>158.15664905727371</v>
+        <v>44.194899055932943</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -10386,25 +10386,25 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>416.625</v>
+        <v>219.42500000000001</v>
       </c>
       <c r="C38">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="D38">
-        <v>56.677987179938128</v>
+        <v>58.348153794974941</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38">
-        <v>588.17499999999995</v>
+        <v>250.95</v>
       </c>
       <c r="H38">
-        <v>742</v>
+        <v>335</v>
       </c>
       <c r="I38">
-        <v>108.77284905852059</v>
+        <v>43.586606976137809</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -10412,25 +10412,25 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>507.55</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="C39">
-        <v>680</v>
+        <v>358</v>
       </c>
       <c r="D39">
-        <v>70.053807158754097</v>
+        <v>42.633079729002567</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
       </c>
       <c r="G39">
-        <v>567.875</v>
+        <v>258.07499999999999</v>
       </c>
       <c r="H39">
-        <v>741</v>
+        <v>354</v>
       </c>
       <c r="I39">
-        <v>131.31644838094203</v>
+        <v>42.796709375059791</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -10438,25 +10438,25 @@
         <v>22</v>
       </c>
       <c r="B40">
-        <v>496.2</v>
+        <v>255.72499999999999</v>
       </c>
       <c r="C40">
-        <v>685</v>
+        <v>415</v>
       </c>
       <c r="D40">
-        <v>72.11038546775147</v>
+        <v>52.348921816830362</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
       <c r="G40">
-        <v>564.65</v>
+        <v>263.5</v>
       </c>
       <c r="H40">
-        <v>836</v>
+        <v>335</v>
       </c>
       <c r="I40">
-        <v>163.26234197662453</v>
+        <v>31.57814888779086</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,25 +10464,25 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>503.75</v>
+        <v>254.6</v>
       </c>
       <c r="C41">
-        <v>634</v>
+        <v>359</v>
       </c>
       <c r="D41">
-        <v>66.852976843372602</v>
+        <v>33.0607831821236</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41">
-        <v>619.85</v>
+        <v>257.14999999999998</v>
       </c>
       <c r="H41">
-        <v>976</v>
+        <v>372</v>
       </c>
       <c r="I41">
-        <v>166.07436548665439</v>
+        <v>43.823977747815498</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10490,25 +10490,25 @@
         <v>23</v>
       </c>
       <c r="B42">
-        <v>721.65</v>
+        <v>269.42500000000001</v>
       </c>
       <c r="C42">
-        <v>945</v>
+        <v>397</v>
       </c>
       <c r="D42">
-        <v>85.44290341268713</v>
+        <v>53.924870576262528</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
       <c r="G42">
-        <v>581.22500000000002</v>
+        <v>293.32499999999999</v>
       </c>
       <c r="H42">
-        <v>795</v>
+        <v>409</v>
       </c>
       <c r="I42">
-        <v>185.49179088892177</v>
+        <v>44.067772688707414</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -10516,25 +10516,25 @@
         <v>24</v>
       </c>
       <c r="B43">
-        <v>644.27499999999998</v>
+        <v>315.55</v>
       </c>
       <c r="C43">
-        <v>833</v>
+        <v>536</v>
       </c>
       <c r="D43">
-        <v>72.837010703385673</v>
+        <v>54.39831728166709</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43">
-        <v>621.07500000000005</v>
+        <v>313.125</v>
       </c>
       <c r="H43">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="I43">
-        <v>107.56211979774582</v>
+        <v>135.31069423500483</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10542,25 +10542,25 @@
         <v>25</v>
       </c>
       <c r="B44">
-        <v>718.97500000000002</v>
+        <v>380.4</v>
       </c>
       <c r="C44">
-        <v>972</v>
+        <v>598</v>
       </c>
       <c r="D44">
-        <v>105.3306119820485</v>
+        <v>76.053894520891319</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44">
-        <v>604.54999999999995</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="H44">
-        <v>816</v>
+        <v>419</v>
       </c>
       <c r="I44">
-        <v>165.68149084993297</v>
+        <v>48.639859142845999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -10568,25 +10568,25 @@
         <v>26</v>
       </c>
       <c r="B45">
-        <v>761.95</v>
+        <v>351.32499999999999</v>
       </c>
       <c r="C45">
-        <v>984</v>
+        <v>495</v>
       </c>
       <c r="D45">
-        <v>113.16970465315359</v>
+        <v>57.504687657304181</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45">
-        <v>650.27499999999998</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="H45">
-        <v>886</v>
+        <v>542</v>
       </c>
       <c r="I45">
-        <v>146.89189946421541</v>
+        <v>57.142444595580415</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -10594,30 +10594,30 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>626.17499999999995</v>
+        <v>381.6</v>
       </c>
       <c r="C46">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="D46">
-        <v>65.487085240781198</v>
+        <v>57.821032461136369</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>590.5</v>
+        <v>308.22500000000002</v>
       </c>
       <c r="H46">
-        <v>764</v>
+        <v>417</v>
       </c>
       <c r="I46">
-        <v>208.5606349758709</v>
+        <v>47.342444500490821</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -10626,7 +10626,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -10640,25 +10640,25 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>39.024999999999999</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.15811388300841894</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51">
-        <v>335.15</v>
+        <v>154.72499999999999</v>
       </c>
       <c r="H51">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="I51">
-        <v>101.30875629758808</v>
+        <v>59.838666643241851</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -10666,25 +10666,25 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>50.9</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="C52">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>5.3722935941307801</v>
+        <v>0.6975230903263786</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52">
-        <v>489.9</v>
+        <v>125.5</v>
       </c>
       <c r="H52">
-        <v>671</v>
+        <v>255</v>
       </c>
       <c r="I52">
-        <v>103.20400509024181</v>
+        <v>33.437273842992674</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10692,25 +10692,25 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>78.375</v>
+        <v>46.85</v>
       </c>
       <c r="C53">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>13.951725378090018</v>
+        <v>4.1605596270521605</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>439.6</v>
+        <v>213.35</v>
       </c>
       <c r="H53">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="I53">
-        <v>90.872917744986978</v>
+        <v>51.703072368164882</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -10718,25 +10718,25 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>118.52500000000001</v>
+        <v>56.075000000000003</v>
       </c>
       <c r="C54">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>30.123666051964122</v>
+        <v>7.4019661282731102</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54">
-        <v>506.95</v>
+        <v>231.4</v>
       </c>
       <c r="H54">
-        <v>742</v>
+        <v>342</v>
       </c>
       <c r="I54">
-        <v>83.039672322855353</v>
+        <v>48.192349642890065</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -10744,25 +10744,25 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>121.4</v>
+        <v>54.6</v>
       </c>
       <c r="C55">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>24.370852704377434</v>
+        <v>7.9704582759214846</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>437.4</v>
+        <v>198.5</v>
       </c>
       <c r="H55">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="I55">
-        <v>97.230838201857992</v>
+        <v>46.207447507173612</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -10770,25 +10770,25 @@
         <v>15</v>
       </c>
       <c r="B56">
-        <v>100.575</v>
+        <v>95.2</v>
       </c>
       <c r="C56">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D56">
-        <v>19.710582215704637</v>
+        <v>26.165351918627842</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56">
-        <v>545.25</v>
+        <v>272.72500000000002</v>
       </c>
       <c r="H56">
-        <v>782</v>
+        <v>404</v>
       </c>
       <c r="I56">
-        <v>94.34273306435044</v>
+        <v>41.987169896260433</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -10796,25 +10796,25 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>275.35000000000002</v>
+        <v>122.35</v>
       </c>
       <c r="C57">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>55.236809540424495</v>
+        <v>32.032475508138397</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57">
-        <v>544.9</v>
+        <v>236.625</v>
       </c>
       <c r="H57">
-        <v>709</v>
+        <v>352</v>
       </c>
       <c r="I57">
-        <v>67.336811283622154</v>
+        <v>45.742695928084856</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -10822,25 +10822,25 @@
         <v>17</v>
       </c>
       <c r="B58">
-        <v>318.45</v>
+        <v>112.02500000000001</v>
       </c>
       <c r="C58">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="D58">
-        <v>52.229743957309914</v>
+        <v>25.985683928478167</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58">
-        <v>571.67499999999995</v>
+        <v>234.35</v>
       </c>
       <c r="H58">
-        <v>737</v>
+        <v>360</v>
       </c>
       <c r="I58">
-        <v>84.328535639348871</v>
+        <v>49.306238228089668</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -10848,25 +10848,25 @@
         <v>18</v>
       </c>
       <c r="B59">
-        <v>334.52499999999998</v>
+        <v>172.72499999999999</v>
       </c>
       <c r="C59">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D59">
-        <v>48.453513275282106</v>
+        <v>39.83812598568467</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
       </c>
       <c r="G59">
-        <v>601.25</v>
+        <v>241.97499999999999</v>
       </c>
       <c r="H59">
-        <v>749</v>
+        <v>347</v>
       </c>
       <c r="I59">
-        <v>88.49735618244226</v>
+        <v>50.429685752820305</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -10874,25 +10874,25 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>344.17500000000001</v>
+        <v>192.72499999999999</v>
       </c>
       <c r="C60">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="D60">
-        <v>60.361257527129268</v>
+        <v>43.594275971002197</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>590.9</v>
+        <v>229.85</v>
       </c>
       <c r="H60">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="I60">
-        <v>82.545651704887561</v>
+        <v>52.576952150499366</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -10900,25 +10900,25 @@
         <v>19</v>
       </c>
       <c r="B61">
-        <v>346.22500000000002</v>
+        <v>156.25</v>
       </c>
       <c r="C61">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="D61">
-        <v>53.134318187314307</v>
+        <v>24.307590879372935</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61">
-        <v>629.54999999999995</v>
+        <v>221.875</v>
       </c>
       <c r="H61">
-        <v>1000</v>
+        <v>348</v>
       </c>
       <c r="I61">
-        <v>122.00251153362717</v>
+        <v>44.194899055932943</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -10926,25 +10926,25 @@
         <v>20</v>
       </c>
       <c r="B62">
-        <v>416.625</v>
+        <v>219.42500000000001</v>
       </c>
       <c r="C62">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="D62">
-        <v>56.677987179938128</v>
+        <v>58.348153794974941</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62">
-        <v>612.02499999999998</v>
+        <v>250.95</v>
       </c>
       <c r="H62">
-        <v>1000</v>
+        <v>335</v>
       </c>
       <c r="I62">
-        <v>89.775071492806134</v>
+        <v>43.586606976137809</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -10952,25 +10952,25 @@
         <v>21</v>
       </c>
       <c r="B63">
-        <v>507.55</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="C63">
-        <v>680</v>
+        <v>358</v>
       </c>
       <c r="D63">
-        <v>70.053807158754097</v>
+        <v>42.633079729002567</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63">
-        <v>614.6</v>
+        <v>258.07499999999999</v>
       </c>
       <c r="H63">
-        <v>1000</v>
+        <v>354</v>
       </c>
       <c r="I63">
-        <v>107.82340738210405</v>
+        <v>42.796709375059791</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -10978,25 +10978,25 @@
         <v>22</v>
       </c>
       <c r="B64">
-        <v>496.2</v>
+        <v>255.72499999999999</v>
       </c>
       <c r="C64">
-        <v>685</v>
+        <v>415</v>
       </c>
       <c r="D64">
-        <v>72.11038546775147</v>
+        <v>52.348921816830362</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
       </c>
       <c r="G64">
-        <v>635.375</v>
+        <v>263.5</v>
       </c>
       <c r="H64">
-        <v>1000</v>
+        <v>335</v>
       </c>
       <c r="I64">
-        <v>127.58681056742985</v>
+        <v>31.57814888779086</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -11004,25 +11004,25 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>503.75</v>
+        <v>254.6</v>
       </c>
       <c r="C65">
-        <v>634</v>
+        <v>359</v>
       </c>
       <c r="D65">
-        <v>66.852976843372602</v>
+        <v>33.0607831821236</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>667.2</v>
+        <v>257.14999999999998</v>
       </c>
       <c r="H65">
-        <v>1000</v>
+        <v>372</v>
       </c>
       <c r="I65">
-        <v>127.31511481964121</v>
+        <v>43.823977747815498</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -11030,25 +11030,25 @@
         <v>23</v>
       </c>
       <c r="B66">
-        <v>729.82500000000005</v>
+        <v>269.42500000000001</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>397</v>
       </c>
       <c r="D66">
-        <v>95.696873860469594</v>
+        <v>53.924870576262528</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
       </c>
       <c r="G66">
-        <v>674.42499999999995</v>
+        <v>293.32499999999999</v>
       </c>
       <c r="H66">
-        <v>1000</v>
+        <v>409</v>
       </c>
       <c r="I66">
-        <v>128.28851448480458</v>
+        <v>44.067772688707414</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -11056,25 +11056,25 @@
         <v>24</v>
       </c>
       <c r="B67">
-        <v>644.27499999999998</v>
+        <v>315.55</v>
       </c>
       <c r="C67">
-        <v>833</v>
+        <v>536</v>
       </c>
       <c r="D67">
-        <v>72.837010703385673</v>
+        <v>54.39831728166709</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="G67">
-        <v>643.57500000000005</v>
+        <v>319.67500000000001</v>
       </c>
       <c r="H67">
         <v>1000</v>
       </c>
       <c r="I67">
-        <v>88.147570759319507</v>
+        <v>163.12436462200651</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,25 +11082,25 @@
         <v>25</v>
       </c>
       <c r="B68">
-        <v>718.97500000000002</v>
+        <v>380.4</v>
       </c>
       <c r="C68">
-        <v>972</v>
+        <v>598</v>
       </c>
       <c r="D68">
-        <v>105.3306119820485</v>
+        <v>76.053894520891319</v>
       </c>
       <c r="F68" t="s">
         <v>25</v>
       </c>
       <c r="G68">
-        <v>673.1</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="H68">
-        <v>1000</v>
+        <v>419</v>
       </c>
       <c r="I68">
-        <v>118.13894470668973</v>
+        <v>48.639859142845999</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -11108,25 +11108,25 @@
         <v>26</v>
       </c>
       <c r="B69">
-        <v>761.95</v>
+        <v>351.32499999999999</v>
       </c>
       <c r="C69">
-        <v>984</v>
+        <v>495</v>
       </c>
       <c r="D69">
-        <v>113.16970465315359</v>
+        <v>57.504687657304181</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
       </c>
       <c r="G69">
-        <v>695.625</v>
+        <v>308.60000000000002</v>
       </c>
       <c r="H69">
         <v>1000</v>
       </c>
       <c r="I69">
-        <v>99.015587350990046</v>
+        <v>119.41605784732167</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -11134,25 +11134,25 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>626.17499999999995</v>
+        <v>381.6</v>
       </c>
       <c r="C70">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="D70">
-        <v>65.487085240781198</v>
+        <v>57.821032461136369</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70">
-        <v>707.3</v>
+        <v>308.22500000000002</v>
       </c>
       <c r="H70">
-        <v>1000</v>
+        <v>417</v>
       </c>
       <c r="I70">
-        <v>125.18769497981395</v>
+        <v>47.342444500490821</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -11452,13 +11452,13 @@
         <v>19</v>
       </c>
       <c r="G86">
-        <v>106.55</v>
+        <v>110</v>
       </c>
       <c r="H86">
         <v>110</v>
       </c>
       <c r="I86">
-        <v>12.272441505781199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -11478,13 +11478,13 @@
         <v>20</v>
       </c>
       <c r="G87">
-        <v>118.5</v>
+        <v>120</v>
       </c>
       <c r="H87">
         <v>120</v>
       </c>
       <c r="I87">
-        <v>9.4868329805051381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -11504,13 +11504,13 @@
         <v>21</v>
       </c>
       <c r="G88">
-        <v>126.8</v>
+        <v>130</v>
       </c>
       <c r="H88">
         <v>130</v>
       </c>
       <c r="I88">
-        <v>14.214835154216143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -11530,13 +11530,13 @@
         <v>22</v>
       </c>
       <c r="G89">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H89">
         <v>140</v>
       </c>
       <c r="I89">
-        <v>14.284651975154384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -11556,13 +11556,13 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>147.125</v>
+        <v>150</v>
       </c>
       <c r="H90">
         <v>150</v>
       </c>
       <c r="I90">
-        <v>12.912302819503735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -11570,25 +11570,25 @@
         <v>23</v>
       </c>
       <c r="B91">
-        <v>159.94999999999999</v>
+        <v>160</v>
       </c>
       <c r="C91">
         <v>160</v>
       </c>
       <c r="D91">
-        <v>0.316227766016838</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91">
-        <v>151.02500000000001</v>
+        <v>160</v>
       </c>
       <c r="H91">
         <v>160</v>
       </c>
       <c r="I91">
-        <v>27.272121108259789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -11608,13 +11608,13 @@
         <v>24</v>
       </c>
       <c r="G92">
-        <v>168.35</v>
+        <v>168.375</v>
       </c>
       <c r="H92">
         <v>170</v>
       </c>
       <c r="I92">
-        <v>10.435516278555646</v>
+        <v>7.1814843833791038</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -11634,13 +11634,13 @@
         <v>25</v>
       </c>
       <c r="G93">
-        <v>174.15</v>
+        <v>180</v>
       </c>
       <c r="H93">
         <v>180</v>
       </c>
       <c r="I93">
-        <v>21.015928025410467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -11660,13 +11660,13 @@
         <v>26</v>
       </c>
       <c r="G94">
-        <v>185.57499999999999</v>
+        <v>188.97499999999999</v>
       </c>
       <c r="H94">
         <v>190</v>
       </c>
       <c r="I94">
-        <v>19.607543681725328</v>
+        <v>6.4826692033451785</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -11686,13 +11686,13 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>189.8</v>
+        <v>200</v>
       </c>
       <c r="H95">
         <v>200</v>
       </c>
       <c r="I95">
-        <v>27.342274960214954</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/memoria/4pasillo/4pasillo.xlsx
+++ b/memoria/4pasillo/4pasillo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2C38-2077-4AA0-AFFF-EE09AA3F2C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA8D7F8-47CB-403E-AF15-5D816B59FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="15075" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="31">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>makespan</t>
-  </si>
-  <si>
-    <t>completion_time</t>
   </si>
   <si>
     <t>tiempo_en_acabar</t>
@@ -310,64 +307,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.19435791725576759</c:v>
+                    <c:v>7.999999999999971E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.47391982444291142</c:v>
+                    <c:v>0.20123058912600719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0922708290807441</c:v>
+                    <c:v>0.20214818547018601</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.379966484671113</c:v>
+                    <c:v>0.51579883433369655</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4236955254321861</c:v>
+                    <c:v>0.29482876386133028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5646065799427029</c:v>
+                    <c:v>1.8724269381978269</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4750455278643404</c:v>
+                    <c:v>2.7023435596322161</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4261106231982854</c:v>
+                    <c:v>2.1914855656323629</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.1640675380249093</c:v>
+                    <c:v>3.4814684002906331</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3878253072796376</c:v>
+                    <c:v>3.4881305881517681</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8524578454695328</c:v>
+                    <c:v>2.421902426530921</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6918310047583063</c:v>
+                    <c:v>4.9110255597595014</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.667105626427871</c:v>
+                    <c:v>4.6422206989491004</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.3779902374046618</c:v>
+                    <c:v>5.1569471668451916</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10.47412205283945</c:v>
+                    <c:v>3.6448337715487411</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.938507344849951</c:v>
+                    <c:v>4.6984928496906067</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.14749812622515</c:v>
+                    <c:v>5.8053200082272696</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>18.380561758012821</c:v>
+                    <c:v>6.8231729736986981</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>16.597077772358531</c:v>
+                    <c:v>6.0383423949057704</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>10.05235847948132</c:v>
+                    <c:v>4.6453576557677456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -379,64 +376,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.19435791725576759</c:v>
+                    <c:v>7.999999999999971E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.47391982444291142</c:v>
+                    <c:v>0.20123058912600719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0922708290807441</c:v>
+                    <c:v>0.20214818547018601</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.379966484671113</c:v>
+                    <c:v>0.51579883433369655</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.4236955254321861</c:v>
+                    <c:v>0.29482876386133028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5646065799427029</c:v>
+                    <c:v>1.8724269381978269</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4750455278643404</c:v>
+                    <c:v>2.7023435596322161</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4261106231982854</c:v>
+                    <c:v>2.1914855656323629</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.1640675380249093</c:v>
+                    <c:v>3.4814684002906331</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3878253072796376</c:v>
+                    <c:v>3.4881305881517681</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8524578454695328</c:v>
+                    <c:v>2.421902426530921</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6918310047583063</c:v>
+                    <c:v>4.9110255597595014</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.667105626427871</c:v>
+                    <c:v>4.6422206989491004</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.3779902374046618</c:v>
+                    <c:v>5.1569471668451916</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10.47412205283945</c:v>
+                    <c:v>3.6448337715487411</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.938507344849951</c:v>
+                    <c:v>4.6984928496906067</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>12.14749812622515</c:v>
+                    <c:v>5.8053200082272696</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>18.380561758012821</c:v>
+                    <c:v>6.8231729736986981</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>16.597077772358531</c:v>
+                    <c:v>6.0383423949057704</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>10.05235847948132</c:v>
+                    <c:v>4.6453576557677456</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -530,64 +527,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.835000000000001</c:v>
+                  <c:v>26.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.13</c:v>
+                  <c:v>30.5275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.875</c:v>
+                  <c:v>26.855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.591249999999999</c:v>
+                  <c:v>25.171250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.91</c:v>
+                  <c:v>22.094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619166666666661</c:v>
+                  <c:v>30.095833333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.341428571428573</c:v>
+                  <c:v>31.246428571428581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.791875000000005</c:v>
+                  <c:v>32.480625000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.290000000000006</c:v>
+                  <c:v>38.348888888888887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.353999999999999</c:v>
+                  <c:v>42.695000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.369090909090914</c:v>
+                  <c:v>36.604999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.610416666666666</c:v>
+                  <c:v>43.767916666666657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.0857692307693</c:v>
+                  <c:v>54.369230769230761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.408928571428575</c:v>
+                  <c:v>53.847142857142863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.795000000000002</c:v>
+                  <c:v>50.600333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.11296874999999</c:v>
+                  <c:v>47.704062500000013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.7623529411765</c:v>
+                  <c:v>63.158529411764697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.25416666666669</c:v>
+                  <c:v>68.381944444444429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143.82526315789471</c:v>
+                  <c:v>63.181315789473693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.52800000000001</c:v>
+                  <c:v>73.496499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,64 +634,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.07525959063714</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.034063544529189</c:v>
+                    <c:v>3.3017334462369909</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.71761789453857</c:v>
+                    <c:v>5.298888772395796</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3362659737430462</c:v>
+                    <c:v>3.738197886348448</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0081926343387559</c:v>
+                    <c:v>2.688664910322593</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.2325759972194934</c:v>
+                    <c:v>3.371072921028095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3314820781648313</c:v>
+                    <c:v>2.658169444546072</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0349354141383742</c:v>
+                    <c:v>2.231538059136569</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6262996852414604</c:v>
+                    <c:v>2.9003273016661621</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.2580088950118453</c:v>
+                    <c:v>2.1797474624368758</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>61.631361220556869</c:v>
+                    <c:v>1.748094594335158</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>47.707516255284823</c:v>
+                    <c:v>1.9939413440052181</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>61.004841698130043</c:v>
+                    <c:v>2.496176217749694</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>59.184305372484268</c:v>
+                    <c:v>2.3063284719241879</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.613582092790118</c:v>
+                    <c:v>1.6923382574939849</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>98.055387793292468</c:v>
+                    <c:v>2.0937984136193721</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>33.684412984556907</c:v>
+                    <c:v>28.166182284451839</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>52.110211433354003</c:v>
+                    <c:v>1.898511762823778</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>47.154079611741658</c:v>
+                    <c:v>22.298806843289821</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>72.080161108895794</c:v>
+                    <c:v>2.224035521299065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -706,64 +703,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.07525959063714</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.034063544529189</c:v>
+                    <c:v>3.3017334462369909</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.71761789453857</c:v>
+                    <c:v>5.298888772395796</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3362659737430462</c:v>
+                    <c:v>3.738197886348448</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0081926343387559</c:v>
+                    <c:v>2.688664910322593</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.2325759972194934</c:v>
+                    <c:v>3.371072921028095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3314820781648313</c:v>
+                    <c:v>2.658169444546072</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0349354141383742</c:v>
+                    <c:v>2.231538059136569</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6262996852414604</c:v>
+                    <c:v>2.9003273016661621</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.2580088950118453</c:v>
+                    <c:v>2.1797474624368758</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>61.631361220556869</c:v>
+                    <c:v>1.748094594335158</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>47.707516255284823</c:v>
+                    <c:v>1.9939413440052181</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>61.004841698130043</c:v>
+                    <c:v>2.496176217749694</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>59.184305372484268</c:v>
+                    <c:v>2.3063284719241879</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>39.613582092790118</c:v>
+                    <c:v>1.6923382574939849</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>98.055387793292468</c:v>
+                    <c:v>2.0937984136193721</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>33.684412984556907</c:v>
+                    <c:v>28.166182284451839</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>52.110211433354003</c:v>
+                    <c:v>1.898511762823778</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>47.154079611741658</c:v>
+                    <c:v>22.298806843289821</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>72.080161108895794</c:v>
+                    <c:v>2.224035521299065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -857,64 +854,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>91.655000000000001</c:v>
+                  <c:v>50.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.032499999999999</c:v>
+                  <c:v>47.657500000000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.2</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.408749999999998</c:v>
+                  <c:v>52.448749999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.405999999999992</c:v>
+                  <c:v>39.860999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.75333333333333</c:v>
+                  <c:v>50.114166666666662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.76</c:v>
+                  <c:v>42.746428571428567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.674375</c:v>
+                  <c:v>44.698124999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.603333333333325</c:v>
+                  <c:v>49.007222222222218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.300500000000014</c:v>
+                  <c:v>48.338999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.0206818181818</c:v>
+                  <c:v>45.109090909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.92020833333331</c:v>
+                  <c:v>51.095833333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127.4221153846154</c:v>
+                  <c:v>54.140384615384619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.52892857142859</c:v>
+                  <c:v>55.398571428571429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.617333333333335</c:v>
+                  <c:v>51.043666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.69593750000001</c:v>
+                  <c:v>50.549374999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99.985588235294117</c:v>
+                  <c:v>61.153823529411767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.8879166666667</c:v>
+                  <c:v>56.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.38552631578951</c:v>
+                  <c:v>54.187105263157903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122.51537500000001</c:v>
+                  <c:v>62.084000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,64 +1027,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.2</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8</c:v>
+                  <c:v>25.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.675000000000001</c:v>
+                  <c:v>23.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.3</c:v>
+                  <c:v>20.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.366666666666671</c:v>
+                  <c:v>23.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.714285714285719</c:v>
+                  <c:v>22.38571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.087499999999999</c:v>
+                  <c:v>23.925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62222222222222</c:v>
+                  <c:v>24.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.73</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.618181818181821</c:v>
+                  <c:v>23.40909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.583333333333329</c:v>
+                  <c:v>24.983333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.838461538461541</c:v>
+                  <c:v>25.91538461538461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.25714285714286</c:v>
+                  <c:v>26.06428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.32</c:v>
+                  <c:v>23.77333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.675000000000001</c:v>
+                  <c:v>22.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.764705882352938</c:v>
+                  <c:v>24.794117647058819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.977777777777781</c:v>
+                  <c:v>25.233333333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.147368421052629</c:v>
+                  <c:v>23.068421052631582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.6</c:v>
+                  <c:v>25.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,64 +1479,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.25542856144135467</c:v>
+                    <c:v>0.1595109714094928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.9981201080030403</c:v>
+                    <c:v>0.35450449574018061</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6372944698390679</c:v>
+                    <c:v>0.44225118553952042</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4426115838125</c:v>
+                    <c:v>1.0803571096517111</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.059235120055205</c:v>
+                    <c:v>0.63662862015463961</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.404255889283621</c:v>
+                    <c:v>4.146990855996938</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>17.841585362287621</c:v>
+                    <c:v>5.7575442854553529</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>15.50148150366905</c:v>
+                    <c:v>4.5606187795455719</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>14.95716513544224</c:v>
+                    <c:v>7.255141721863259</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>16.460012589226661</c:v>
+                    <c:v>7.1409787450670938</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13.69652323433497</c:v>
+                    <c:v>5.0633780281335037</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.95936855749229</c:v>
+                    <c:v>9.6662129899825988</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>18.92700670479234</c:v>
+                    <c:v>9.3721919660515223</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.703023836865739</c:v>
+                    <c:v>9.872140867416876</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.286502454548501</c:v>
+                    <c:v>7.1675511682861401</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.254303469903899</c:v>
+                    <c:v>8.958423693827223</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>19.21147094620698</c:v>
+                    <c:v>10.34929604947714</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>28.526312565153159</c:v>
+                    <c:v>12.047201147087859</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>25.944771952600341</c:v>
+                    <c:v>10.863460926898449</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.569599978804851</c:v>
+                    <c:v>8.3671161166422809</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1551,64 +1548,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0.25542856144135467</c:v>
+                    <c:v>0.1595109714094928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.9981201080030403</c:v>
+                    <c:v>0.35450449574018061</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6372944698390679</c:v>
+                    <c:v>0.44225118553952042</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4426115838125</c:v>
+                    <c:v>1.0803571096517111</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.059235120055205</c:v>
+                    <c:v>0.63662862015463961</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.404255889283621</c:v>
+                    <c:v>4.146990855996938</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>17.841585362287621</c:v>
+                    <c:v>5.7575442854553529</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>15.50148150366905</c:v>
+                    <c:v>4.5606187795455719</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>14.95716513544224</c:v>
+                    <c:v>7.255141721863259</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>16.460012589226661</c:v>
+                    <c:v>7.1409787450670938</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13.69652323433497</c:v>
+                    <c:v>5.0633780281335037</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.95936855749229</c:v>
+                    <c:v>9.6662129899825988</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>18.92700670479234</c:v>
+                    <c:v>9.3721919660515223</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.703023836865739</c:v>
+                    <c:v>9.872140867416876</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.286502454548501</c:v>
+                    <c:v>7.1675511682861401</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>25.254303469903899</c:v>
+                    <c:v>8.958423693827223</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>19.21147094620698</c:v>
+                    <c:v>10.34929604947714</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>28.526312565153159</c:v>
+                    <c:v>12.047201147087859</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>25.944771952600341</c:v>
+                    <c:v>10.863460926898449</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.569599978804851</c:v>
+                    <c:v>8.3671161166422809</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1702,64 +1699,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>31.302499999999998</c:v>
+                  <c:v>26.982500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1525</c:v>
+                  <c:v>31.053750000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.833333333333329</c:v>
+                  <c:v>27.528333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.52375</c:v>
+                  <c:v>26.780625000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.94</c:v>
+                  <c:v>23.382000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.374583333333327</c:v>
+                  <c:v>36.788750000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.386071428571427</c:v>
+                  <c:v>40.563928571428583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.37718750000001</c:v>
+                  <c:v>41.8984375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106.1622222222222</c:v>
+                  <c:v>52.956944444444453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.28825000000001</c:v>
+                  <c:v>60.602250000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103.0465909090909</c:v>
+                  <c:v>50.88340909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129.36583333333331</c:v>
+                  <c:v>63.304375000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.37326923076921</c:v>
+                  <c:v>84.265384615384619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>141.5994642857143</c:v>
+                  <c:v>82.481428571428566</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143.30466666666669</c:v>
+                  <c:v>78.357833333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.09062499999999</c:v>
+                  <c:v>72.799374999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188.90294117647059</c:v>
+                  <c:v>99.564117647058822</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.23805555555549</c:v>
+                  <c:v>108.4469444444444</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>224.5667105263158</c:v>
+                  <c:v>100.5718421052632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.322</c:v>
+                  <c:v>117.156875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,64 +1807,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.08071269142919</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.02309271021047</c:v>
+                    <c:v>3.3152429680944961</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.70626345105207</c:v>
+                    <c:v>5.305717500437094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3338399890081467</c:v>
+                    <c:v>3.7520117520471601</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.018378997318397</c:v>
+                    <c:v>2.700825799639806</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.244915075033278</c:v>
+                    <c:v>3.3933492703866079</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3562188333271594</c:v>
+                    <c:v>2.693434738169</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0548149177603712</c:v>
+                    <c:v>2.2906306275510682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6637104489356371</c:v>
+                    <c:v>2.9102384188105601</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.36699450423286</c:v>
+                    <c:v>2.1983994035434051</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>89.758543183254503</c:v>
+                    <c:v>1.770376632081855</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>64.068736977895142</c:v>
+                    <c:v>2.0298214100253311</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>85.313685592472808</c:v>
+                    <c:v>2.5694627299134352</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>79.898867349885776</c:v>
+                    <c:v>2.4976781054345949</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>68.829472014174272</c:v>
+                    <c:v>1.819373144489302</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>132.7864576232268</c:v>
+                    <c:v>2.1933532404745022</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>48.167479372680972</c:v>
+                    <c:v>41.377048674439322</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>89.944275228784448</c:v>
+                    <c:v>2.06264541200833</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>80.988743446726218</c:v>
+                    <c:v>32.149221879140569</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>106.36452961036581</c:v>
+                    <c:v>2.6570248399290519</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1879,64 +1876,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>23.327751177513871</c:v>
+                    <c:v>11.08071269142919</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.02309271021047</c:v>
+                    <c:v>3.3152429680944961</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.70626345105207</c:v>
+                    <c:v>5.305717500437094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3338399890081467</c:v>
+                    <c:v>3.7520117520471601</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.018378997318397</c:v>
+                    <c:v>2.700825799639806</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.244915075033278</c:v>
+                    <c:v>3.3933492703866079</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3562188333271594</c:v>
+                    <c:v>2.693434738169</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.0548149177603712</c:v>
+                    <c:v>2.2906306275510682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6637104489356371</c:v>
+                    <c:v>2.9102384188105601</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.36699450423286</c:v>
+                    <c:v>2.1983994035434051</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>89.758543183254503</c:v>
+                    <c:v>1.770376632081855</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>64.068736977895142</c:v>
+                    <c:v>2.0298214100253311</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>85.313685592472808</c:v>
+                    <c:v>2.5694627299134352</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>79.898867349885776</c:v>
+                    <c:v>2.4976781054345949</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>68.829472014174272</c:v>
+                    <c:v>1.819373144489302</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>132.7864576232268</c:v>
+                    <c:v>2.1933532404745022</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>48.167479372680972</c:v>
+                    <c:v>41.377048674439322</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>89.944275228784448</c:v>
+                    <c:v>2.06264541200833</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>80.988743446726218</c:v>
+                    <c:v>32.149221879140569</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>106.36452961036581</c:v>
+                    <c:v>2.6570248399290519</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2030,64 +2027,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>92.655000000000001</c:v>
+                  <c:v>51.892499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.075000000000003</c:v>
+                  <c:v>48.681249999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.335833333333341</c:v>
+                  <c:v>51.899166666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.434375000000003</c:v>
+                  <c:v>53.523749999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.522500000000001</c:v>
+                  <c:v>40.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.83</c:v>
+                  <c:v>51.262083333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.139285714285705</c:v>
+                  <c:v>43.96892857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.076875</c:v>
+                  <c:v>46.060625000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.162222222222226</c:v>
+                  <c:v>50.422222222222217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.968000000000004</c:v>
+                  <c:v>49.764750000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.1409090909091</c:v>
+                  <c:v>46.570681818181818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.371875</c:v>
+                  <c:v>52.919375000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135.62442307692311</c:v>
+                  <c:v>56.301346153846147</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.47125</c:v>
+                  <c:v>58.054999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.2848333333333</c:v>
+                  <c:v>53.282166666666669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.82499999999999</c:v>
+                  <c:v>53.143124999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105.8326470588235</c:v>
+                  <c:v>67.163235294117655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136.57458333333341</c:v>
+                  <c:v>59.727499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.7669736842105</c:v>
+                  <c:v>58.251447368421047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.33837500000001</c:v>
+                  <c:v>66.964500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,64 +2200,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.2</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8</c:v>
+                  <c:v>25.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.675000000000001</c:v>
+                  <c:v>23.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.3</c:v>
+                  <c:v>20.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.366666666666671</c:v>
+                  <c:v>23.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.714285714285719</c:v>
+                  <c:v>22.38571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.087499999999999</c:v>
+                  <c:v>23.925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62222222222222</c:v>
+                  <c:v>24.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.73</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.618181818181821</c:v>
+                  <c:v>23.40909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.583333333333329</c:v>
+                  <c:v>24.983333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.838461538461541</c:v>
+                  <c:v>25.91538461538461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.25714285714286</c:v>
+                  <c:v>26.06428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.32</c:v>
+                  <c:v>23.77333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.675000000000001</c:v>
+                  <c:v>22.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.764705882352938</c:v>
+                  <c:v>24.794117647058819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.977777777777781</c:v>
+                  <c:v>25.233333333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.147368421052629</c:v>
+                  <c:v>23.068421052631582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.6</c:v>
+                  <c:v>25.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,64 +2644,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>85.44290341268713</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2716,64 +2713,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>85.44290341268713</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2867,64 +2864,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>39.024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.9</c:v>
+                  <c:v>46.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.375</c:v>
+                  <c:v>46.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.52500000000001</c:v>
+                  <c:v>56.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.4</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.575</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.35000000000002</c:v>
+                  <c:v>122.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.45</c:v>
+                  <c:v>112.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.52499999999998</c:v>
+                  <c:v>172.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344.17500000000001</c:v>
+                  <c:v>192.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346.22500000000002</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416.625</c:v>
+                  <c:v>219.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507.55</c:v>
+                  <c:v>265.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>496.2</c:v>
+                  <c:v>255.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>503.75</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>721.65</c:v>
+                  <c:v>269.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>644.27499999999998</c:v>
+                  <c:v>315.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>718.97500000000002</c:v>
+                  <c:v>380.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>761.95</c:v>
+                  <c:v>351.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>626.17499999999995</c:v>
+                  <c:v>381.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,64 +2971,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>158.15664905727371</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>108.77284905852059</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>131.31644838094203</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>163.26234197662453</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>166.07436548665439</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>185.49179088892177</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>107.56211979774582</c:v>
+                    <c:v>135.31069423500483</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>165.68149084993297</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>146.89189946421541</c:v>
+                    <c:v>57.142444595580415</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>208.5606349758709</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3043,64 +3040,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>158.15664905727371</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>108.77284905852059</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>131.31644838094203</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>163.26234197662453</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>166.07436548665439</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>185.49179088892177</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>107.56211979774582</c:v>
+                    <c:v>135.31069423500483</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>165.68149084993297</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>146.89189946421541</c:v>
+                    <c:v>57.142444595580415</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>208.5606349758709</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3194,64 +3191,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>335.15</c:v>
+                  <c:v>154.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489.9</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>439.6</c:v>
+                  <c:v>213.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.95</c:v>
+                  <c:v>231.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.4</c:v>
+                  <c:v>198.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.25</c:v>
+                  <c:v>272.72500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544.9</c:v>
+                  <c:v>236.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571.67499999999995</c:v>
+                  <c:v>234.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601.25</c:v>
+                  <c:v>241.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>590.9</c:v>
+                  <c:v>229.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>558.25</c:v>
+                  <c:v>221.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>588.17499999999995</c:v>
+                  <c:v>250.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>567.875</c:v>
+                  <c:v>258.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>564.65</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>619.85</c:v>
+                  <c:v>257.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>581.22500000000002</c:v>
+                  <c:v>293.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>621.07500000000005</c:v>
+                  <c:v>313.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.54999999999995</c:v>
+                  <c:v>297.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>650.27499999999998</c:v>
+                  <c:v>297.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>590.5</c:v>
+                  <c:v>308.22500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,7 +3684,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.316227766016838</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>0</c:v>
@@ -3756,7 +3753,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.316227766016838</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>0</c:v>
@@ -3907,7 +3904,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.94999999999999</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>170</c:v>
@@ -3999,34 +3996,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>12.272441505781199</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4868329805051381</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>14.214835154216143</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>14.284651975154384</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>12.912302819503735</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.272121108259789</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>10.435516278555646</c:v>
+                    <c:v>7.1814843833791038</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>21.015928025410467</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>19.607543681725328</c:v>
+                    <c:v>6.4826692033451785</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>27.342274960214954</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4068,34 +4065,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>12.272441505781199</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4868329805051381</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>14.214835154216143</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>14.284651975154384</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>12.912302819503735</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>27.272121108259789</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>10.435516278555646</c:v>
+                    <c:v>7.1814843833791038</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>21.015928025410467</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>19.607543681725328</c:v>
+                    <c:v>6.4826692033451785</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>27.342274960214954</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4219,34 +4216,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.55</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.5</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126.8</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147.125</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>151.02500000000001</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168.35</c:v>
+                  <c:v>168.375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174.15</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>185.57499999999999</c:v>
+                  <c:v>188.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189.8</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,64 +4625,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>95.696873860469594</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4697,64 +4694,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15811388300841894</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3722935941307801</c:v>
+                    <c:v>0.6975230903263786</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.951725378090018</c:v>
+                    <c:v>4.1605596270521605</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>30.123666051964122</c:v>
+                    <c:v>7.4019661282731102</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>24.370852704377434</c:v>
+                    <c:v>7.9704582759214846</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>19.710582215704637</c:v>
+                    <c:v>26.165351918627842</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>55.236809540424495</c:v>
+                    <c:v>32.032475508138397</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>52.229743957309914</c:v>
+                    <c:v>25.985683928478167</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48.453513275282106</c:v>
+                    <c:v>39.83812598568467</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>60.361257527129268</c:v>
+                    <c:v>43.594275971002197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>53.134318187314307</c:v>
+                    <c:v>24.307590879372935</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>56.677987179938128</c:v>
+                    <c:v>58.348153794974941</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>70.053807158754097</c:v>
+                    <c:v>42.633079729002567</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>72.11038546775147</c:v>
+                    <c:v>52.348921816830362</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>66.852976843372602</c:v>
+                    <c:v>33.0607831821236</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>95.696873860469594</c:v>
+                    <c:v>53.924870576262528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>72.837010703385673</c:v>
+                    <c:v>54.39831728166709</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>105.3306119820485</c:v>
+                    <c:v>76.053894520891319</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>113.16970465315359</c:v>
+                    <c:v>57.504687657304181</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>65.487085240781198</c:v>
+                    <c:v>57.821032461136369</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4848,64 +4845,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>39.024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.9</c:v>
+                  <c:v>46.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.375</c:v>
+                  <c:v>46.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.52500000000001</c:v>
+                  <c:v>56.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.4</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.575</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.35000000000002</c:v>
+                  <c:v>122.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.45</c:v>
+                  <c:v>112.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.52499999999998</c:v>
+                  <c:v>172.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344.17500000000001</c:v>
+                  <c:v>192.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346.22500000000002</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416.625</c:v>
+                  <c:v>219.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507.55</c:v>
+                  <c:v>265.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>496.2</c:v>
+                  <c:v>255.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>503.75</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>729.82500000000005</c:v>
+                  <c:v>269.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>644.27499999999998</c:v>
+                  <c:v>315.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>718.97500000000002</c:v>
+                  <c:v>380.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>761.95</c:v>
+                  <c:v>351.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>626.17499999999995</c:v>
+                  <c:v>381.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4955,64 +4952,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>122.00251153362717</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>89.775071492806134</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>107.82340738210405</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>127.58681056742985</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>127.31511481964121</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>128.28851448480458</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>88.147570759319507</c:v>
+                    <c:v>163.12436462200651</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>118.13894470668973</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>99.015587350990046</c:v>
+                    <c:v>119.41605784732167</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>125.18769497981395</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5024,64 +5021,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>101.30875629758808</c:v>
+                    <c:v>59.838666643241851</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.20400509024181</c:v>
+                    <c:v>33.437273842992674</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>90.872917744986978</c:v>
+                    <c:v>51.703072368164882</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>83.039672322855353</c:v>
+                    <c:v>48.192349642890065</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>97.230838201857992</c:v>
+                    <c:v>46.207447507173612</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>94.34273306435044</c:v>
+                    <c:v>41.987169896260433</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>67.336811283622154</c:v>
+                    <c:v>45.742695928084856</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>84.328535639348871</c:v>
+                    <c:v>49.306238228089668</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>88.49735618244226</c:v>
+                    <c:v>50.429685752820305</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>82.545651704887561</c:v>
+                    <c:v>52.576952150499366</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>122.00251153362717</c:v>
+                    <c:v>44.194899055932943</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>89.775071492806134</c:v>
+                    <c:v>43.586606976137809</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>107.82340738210405</c:v>
+                    <c:v>42.796709375059791</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>127.58681056742985</c:v>
+                    <c:v>31.57814888779086</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>127.31511481964121</c:v>
+                    <c:v>43.823977747815498</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>128.28851448480458</c:v>
+                    <c:v>44.067772688707414</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>88.147570759319507</c:v>
+                    <c:v>163.12436462200651</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>118.13894470668973</c:v>
+                    <c:v>48.639859142845999</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>99.015587350990046</c:v>
+                    <c:v>119.41605784732167</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>125.18769497981395</c:v>
+                    <c:v>47.342444500490821</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5175,64 +5172,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>335.15</c:v>
+                  <c:v>154.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489.9</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>439.6</c:v>
+                  <c:v>213.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.95</c:v>
+                  <c:v>231.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.4</c:v>
+                  <c:v>198.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.25</c:v>
+                  <c:v>272.72500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>544.9</c:v>
+                  <c:v>236.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571.67499999999995</c:v>
+                  <c:v>234.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601.25</c:v>
+                  <c:v>241.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>590.9</c:v>
+                  <c:v>229.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>629.54999999999995</c:v>
+                  <c:v>221.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>612.02499999999998</c:v>
+                  <c:v>250.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>614.6</c:v>
+                  <c:v>258.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>635.375</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>667.2</c:v>
+                  <c:v>257.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>674.42499999999995</c:v>
+                  <c:v>293.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>643.57500000000005</c:v>
+                  <c:v>319.67500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.1</c:v>
+                  <c:v>297.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>695.625</c:v>
+                  <c:v>308.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>707.3</c:v>
+                  <c:v>308.22500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9265,8 +9262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,7 +9288,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -9320,37 +9317,37 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>30.835000000000001</v>
+        <v>26.76</v>
       </c>
       <c r="C3">
-        <v>0.19435791725576759</v>
+        <v>7.999999999999971E-2</v>
       </c>
       <c r="D3">
-        <v>31.302499999999998</v>
+        <v>26.982500000000002</v>
       </c>
       <c r="E3">
-        <v>0.25542856144135467</v>
+        <v>0.1595109714094928</v>
       </c>
       <c r="F3">
-        <v>30.2</v>
+        <v>26.4</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>91.655000000000001</v>
+        <v>50.875</v>
       </c>
       <c r="J3">
-        <v>23.327751177513871</v>
+        <v>11.07525959063714</v>
       </c>
       <c r="K3">
-        <v>92.655000000000001</v>
+        <v>51.892499999999998</v>
       </c>
       <c r="L3">
-        <v>23.327751177513871</v>
+        <v>11.08071269142919</v>
       </c>
       <c r="M3">
-        <v>30.2</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9358,37 +9355,37 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24.13</v>
+        <v>30.5275</v>
       </c>
       <c r="C4">
-        <v>0.47391982444291142</v>
+        <v>0.20123058912600719</v>
       </c>
       <c r="D4">
-        <v>25.1525</v>
+        <v>31.053750000000001</v>
       </c>
       <c r="E4">
-        <v>0.9981201080030403</v>
+        <v>0.35450449574018061</v>
       </c>
       <c r="F4">
-        <v>23.2</v>
+        <v>29.8</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4">
-        <v>70.032499999999999</v>
+        <v>47.657500000000013</v>
       </c>
       <c r="J4">
-        <v>16.034063544529189</v>
+        <v>3.3017334462369909</v>
       </c>
       <c r="K4">
-        <v>71.075000000000003</v>
+        <v>48.681249999999999</v>
       </c>
       <c r="L4">
-        <v>16.02309271021047</v>
+        <v>3.3152429680944961</v>
       </c>
       <c r="M4">
-        <v>23.2</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9396,37 +9393,37 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29.875</v>
+        <v>26.855</v>
       </c>
       <c r="C5">
-        <v>2.0922708290807441</v>
+        <v>0.20214818547018601</v>
       </c>
       <c r="D5">
-        <v>36.833333333333329</v>
+        <v>27.528333333333329</v>
       </c>
       <c r="E5">
-        <v>4.6372944698390679</v>
+        <v>0.44225118553952042</v>
       </c>
       <c r="F5">
-        <v>23.8</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5">
-        <v>71.2</v>
+        <v>50.833333333333329</v>
       </c>
       <c r="J5">
-        <v>10.71761789453857</v>
+        <v>5.298888772395796</v>
       </c>
       <c r="K5">
-        <v>72.335833333333341</v>
+        <v>51.899166666666673</v>
       </c>
       <c r="L5">
-        <v>10.70626345105207</v>
+        <v>5.305717500437094</v>
       </c>
       <c r="M5">
-        <v>23.8</v>
+        <v>25.93333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -9434,37 +9431,37 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30.591249999999999</v>
+        <v>25.171250000000001</v>
       </c>
       <c r="C6">
-        <v>3.379966484671113</v>
+        <v>0.51579883433369655</v>
       </c>
       <c r="D6">
-        <v>41.52375</v>
+        <v>26.780625000000001</v>
       </c>
       <c r="E6">
-        <v>7.4426115838125</v>
+        <v>1.0803571096517111</v>
       </c>
       <c r="F6">
-        <v>20.675000000000001</v>
+        <v>23.175000000000001</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6">
-        <v>88.408749999999998</v>
+        <v>52.448749999999997</v>
       </c>
       <c r="J6">
-        <v>7.3362659737430462</v>
+        <v>3.738197886348448</v>
       </c>
       <c r="K6">
-        <v>89.434375000000003</v>
+        <v>53.523749999999993</v>
       </c>
       <c r="L6">
-        <v>7.3338399890081467</v>
+        <v>3.7520117520471601</v>
       </c>
       <c r="M6">
-        <v>20.675000000000001</v>
+        <v>23.175000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9472,37 +9469,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>31.91</v>
+        <v>22.094000000000001</v>
       </c>
       <c r="C7">
-        <v>2.4236955254321861</v>
+        <v>0.29482876386133028</v>
       </c>
       <c r="D7">
-        <v>41.94</v>
+        <v>23.382000000000001</v>
       </c>
       <c r="E7">
-        <v>5.059235120055205</v>
+        <v>0.63662862015463961</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>20.66</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>60.405999999999992</v>
+        <v>39.860999999999997</v>
       </c>
       <c r="J7">
-        <v>7.0081926343387559</v>
+        <v>2.688664910322593</v>
       </c>
       <c r="K7">
-        <v>61.522500000000001</v>
+        <v>40.93</v>
       </c>
       <c r="L7">
-        <v>7.018378997318397</v>
+        <v>2.700825799639806</v>
       </c>
       <c r="M7">
-        <v>22.3</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9510,37 +9507,37 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>26.619166666666661</v>
+        <v>30.095833333333331</v>
       </c>
       <c r="C8">
-        <v>1.5646065799427029</v>
+        <v>1.8724269381978269</v>
       </c>
       <c r="D8">
-        <v>32.374583333333327</v>
+        <v>36.788750000000007</v>
       </c>
       <c r="E8">
-        <v>3.404255889283621</v>
+        <v>4.146990855996938</v>
       </c>
       <c r="F8">
-        <v>21.366666666666671</v>
+        <v>23.95</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8">
-        <v>53.75333333333333</v>
+        <v>50.114166666666662</v>
       </c>
       <c r="J8">
-        <v>7.2325759972194934</v>
+        <v>3.371072921028095</v>
       </c>
       <c r="K8">
-        <v>54.83</v>
+        <v>51.262083333333337</v>
       </c>
       <c r="L8">
-        <v>7.244915075033278</v>
+        <v>3.3933492703866079</v>
       </c>
       <c r="M8">
-        <v>21.366666666666671</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9548,37 +9545,37 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>57.341428571428573</v>
+        <v>31.246428571428581</v>
       </c>
       <c r="C9">
-        <v>9.4750455278643404</v>
+        <v>2.7023435596322161</v>
       </c>
       <c r="D9">
-        <v>90.386071428571427</v>
+        <v>40.563928571428583</v>
       </c>
       <c r="E9">
-        <v>17.841585362287621</v>
+        <v>5.7575442854553529</v>
       </c>
       <c r="F9">
-        <v>23.714285714285719</v>
+        <v>22.38571428571429</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9">
-        <v>82.76</v>
+        <v>42.746428571428567</v>
       </c>
       <c r="J9">
-        <v>6.3314820781648313</v>
+        <v>2.658169444546072</v>
       </c>
       <c r="K9">
-        <v>84.139285714285705</v>
+        <v>43.96892857142857</v>
       </c>
       <c r="L9">
-        <v>6.3562188333271594</v>
+        <v>2.693434738169</v>
       </c>
       <c r="M9">
-        <v>23.714285714285719</v>
+        <v>22.38571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,37 +9583,37 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>65.791875000000005</v>
+        <v>32.480625000000003</v>
       </c>
       <c r="C10">
-        <v>8.4261106231982854</v>
+        <v>2.1914855656323629</v>
       </c>
       <c r="D10">
-        <v>103.37718750000001</v>
+        <v>41.8984375</v>
       </c>
       <c r="E10">
-        <v>15.50148150366905</v>
+        <v>4.5606187795455719</v>
       </c>
       <c r="F10">
-        <v>25.087499999999999</v>
+        <v>23.925000000000001</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10">
-        <v>101.674375</v>
+        <v>44.698124999999997</v>
       </c>
       <c r="J10">
-        <v>8.0349354141383742</v>
+        <v>2.231538059136569</v>
       </c>
       <c r="K10">
-        <v>103.076875</v>
+        <v>46.060625000000002</v>
       </c>
       <c r="L10">
-        <v>8.0548149177603712</v>
+        <v>2.2906306275510682</v>
       </c>
       <c r="M10">
-        <v>25.087499999999999</v>
+        <v>23.925000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9624,37 +9621,37 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>67.290000000000006</v>
+        <v>38.348888888888887</v>
       </c>
       <c r="C11">
-        <v>8.1640675380249093</v>
+        <v>3.4814684002906331</v>
       </c>
       <c r="D11">
-        <v>106.1622222222222</v>
+        <v>52.956944444444453</v>
       </c>
       <c r="E11">
-        <v>14.95716513544224</v>
+        <v>7.255141721863259</v>
       </c>
       <c r="F11">
-        <v>23.62222222222222</v>
+        <v>24.966666666666669</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11">
-        <v>89.603333333333325</v>
+        <v>49.007222222222218</v>
       </c>
       <c r="J11">
-        <v>5.6262996852414604</v>
+        <v>2.9003273016661621</v>
       </c>
       <c r="K11">
-        <v>91.162222222222226</v>
+        <v>50.422222222222217</v>
       </c>
       <c r="L11">
-        <v>5.6637104489356371</v>
+        <v>2.9102384188105601</v>
       </c>
       <c r="M11">
-        <v>23.62222222222222</v>
+        <v>24.966666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9662,37 +9659,37 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>70.353999999999999</v>
+        <v>42.695000000000007</v>
       </c>
       <c r="C12">
-        <v>9.3878253072796376</v>
+        <v>3.4881305881517681</v>
       </c>
       <c r="D12">
-        <v>110.28825000000001</v>
+        <v>60.602250000000012</v>
       </c>
       <c r="E12">
-        <v>16.460012589226661</v>
+        <v>7.1409787450670938</v>
       </c>
       <c r="F12">
-        <v>24.73</v>
+        <v>25.94</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>76.300500000000014</v>
+        <v>48.338999999999999</v>
       </c>
       <c r="J12">
-        <v>4.2580088950118453</v>
+        <v>2.1797474624368758</v>
       </c>
       <c r="K12">
-        <v>77.968000000000004</v>
+        <v>49.764750000000006</v>
       </c>
       <c r="L12">
-        <v>4.36699450423286</v>
+        <v>2.1983994035434051</v>
       </c>
       <c r="M12">
-        <v>24.73</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9700,37 +9697,37 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>66.369090909090914</v>
+        <v>36.604999999999997</v>
       </c>
       <c r="C13">
-        <v>7.8524578454695328</v>
+        <v>2.421902426530921</v>
       </c>
       <c r="D13">
-        <v>103.0465909090909</v>
+        <v>50.88340909090909</v>
       </c>
       <c r="E13">
-        <v>13.69652323433497</v>
+        <v>5.0633780281335037</v>
       </c>
       <c r="F13">
-        <v>24.618181818181821</v>
+        <v>23.40909090909091</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13">
-        <v>106.0206818181818</v>
+        <v>45.109090909090909</v>
       </c>
       <c r="J13">
-        <v>61.631361220556869</v>
+        <v>1.748094594335158</v>
       </c>
       <c r="K13">
-        <v>116.1409090909091</v>
+        <v>46.570681818181818</v>
       </c>
       <c r="L13">
-        <v>89.758543183254503</v>
+        <v>1.770376632081855</v>
       </c>
       <c r="M13">
-        <v>24.618181818181821</v>
+        <v>23.40909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9738,37 +9735,37 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>82.610416666666666</v>
+        <v>43.767916666666657</v>
       </c>
       <c r="C14">
-        <v>8.6918310047583063</v>
+        <v>4.9110255597595014</v>
       </c>
       <c r="D14">
-        <v>129.36583333333331</v>
+        <v>63.304375000000007</v>
       </c>
       <c r="E14">
-        <v>14.95936855749229</v>
+        <v>9.6662129899825988</v>
       </c>
       <c r="F14">
-        <v>24.583333333333329</v>
+        <v>24.983333333333331</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>105.92020833333331</v>
+        <v>51.095833333333339</v>
       </c>
       <c r="J14">
-        <v>47.707516255284823</v>
+        <v>1.9939413440052181</v>
       </c>
       <c r="K14">
-        <v>110.371875</v>
+        <v>52.919375000000002</v>
       </c>
       <c r="L14">
-        <v>64.068736977895142</v>
+        <v>2.0298214100253311</v>
       </c>
       <c r="M14">
-        <v>24.583333333333329</v>
+        <v>24.983333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9776,37 +9773,37 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>106.0857692307693</v>
+        <v>54.369230769230761</v>
       </c>
       <c r="C15">
-        <v>11.667105626427871</v>
+        <v>4.6422206989491004</v>
       </c>
       <c r="D15">
-        <v>166.37326923076921</v>
+        <v>84.265384615384619</v>
       </c>
       <c r="E15">
-        <v>18.92700670479234</v>
+        <v>9.3721919660515223</v>
       </c>
       <c r="F15">
-        <v>24.838461538461541</v>
+        <v>25.91538461538461</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15">
-        <v>127.4221153846154</v>
+        <v>54.140384615384619</v>
       </c>
       <c r="J15">
-        <v>61.004841698130043</v>
+        <v>2.496176217749694</v>
       </c>
       <c r="K15">
-        <v>135.62442307692311</v>
+        <v>56.301346153846147</v>
       </c>
       <c r="L15">
-        <v>85.313685592472808</v>
+        <v>2.5694627299134352</v>
       </c>
       <c r="M15">
-        <v>24.838461538461541</v>
+        <v>25.91538461538461</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,37 +9811,37 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>90.408928571428575</v>
+        <v>53.847142857142863</v>
       </c>
       <c r="C16">
-        <v>9.3779902374046618</v>
+        <v>5.1569471668451916</v>
       </c>
       <c r="D16">
-        <v>141.5994642857143</v>
+        <v>82.481428571428566</v>
       </c>
       <c r="E16">
-        <v>15.703023836865739</v>
+        <v>9.872140867416876</v>
       </c>
       <c r="F16">
-        <v>24.25714285714286</v>
+        <v>26.06428571428571</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
       <c r="I16">
-        <v>108.52892857142859</v>
+        <v>55.398571428571429</v>
       </c>
       <c r="J16">
-        <v>59.184305372484268</v>
+        <v>2.3063284719241879</v>
       </c>
       <c r="K16">
-        <v>116.47125</v>
+        <v>58.054999999999993</v>
       </c>
       <c r="L16">
-        <v>79.898867349885776</v>
+        <v>2.4976781054345949</v>
       </c>
       <c r="M16">
-        <v>24.25714285714286</v>
+        <v>26.06428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9852,37 +9849,37 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>91.795000000000002</v>
+        <v>50.600333333333332</v>
       </c>
       <c r="C17">
-        <v>10.47412205283945</v>
+        <v>3.6448337715487411</v>
       </c>
       <c r="D17">
-        <v>143.30466666666669</v>
+        <v>78.357833333333332</v>
       </c>
       <c r="E17">
-        <v>17.286502454548501</v>
+        <v>7.1675511682861401</v>
       </c>
       <c r="F17">
-        <v>23.32</v>
+        <v>23.77333333333333</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>95.617333333333335</v>
+        <v>51.043666666666667</v>
       </c>
       <c r="J17">
-        <v>39.613582092790118</v>
+        <v>1.6923382574939849</v>
       </c>
       <c r="K17">
-        <v>104.2848333333333</v>
+        <v>53.282166666666669</v>
       </c>
       <c r="L17">
-        <v>68.829472014174272</v>
+        <v>1.819373144489302</v>
       </c>
       <c r="M17">
-        <v>23.32</v>
+        <v>23.77333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9890,37 +9887,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>160.11296874999999</v>
+        <v>47.704062500000013</v>
       </c>
       <c r="C18">
-        <v>15.938507344849951</v>
+        <v>4.6984928496906067</v>
       </c>
       <c r="D18">
-        <v>249.09062499999999</v>
+        <v>72.799374999999998</v>
       </c>
       <c r="E18">
-        <v>25.254303469903899</v>
+        <v>8.958423693827223</v>
       </c>
       <c r="F18">
-        <v>26.675000000000001</v>
+        <v>22.831250000000001</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18">
-        <v>157.69593750000001</v>
+        <v>50.549374999999998</v>
       </c>
       <c r="J18">
-        <v>98.055387793292468</v>
+        <v>2.0937984136193721</v>
       </c>
       <c r="K18">
-        <v>172.82499999999999</v>
+        <v>53.143124999999998</v>
       </c>
       <c r="L18">
-        <v>132.7864576232268</v>
+        <v>2.1933532404745022</v>
       </c>
       <c r="M18">
-        <v>26.675000000000001</v>
+        <v>22.831250000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9928,37 +9925,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>120.7623529411765</v>
+        <v>63.158529411764697</v>
       </c>
       <c r="C19">
-        <v>12.14749812622515</v>
+        <v>5.8053200082272696</v>
       </c>
       <c r="D19">
-        <v>188.90294117647059</v>
+        <v>99.564117647058822</v>
       </c>
       <c r="E19">
-        <v>19.21147094620698</v>
+        <v>10.34929604947714</v>
       </c>
       <c r="F19">
-        <v>23.764705882352938</v>
+        <v>24.794117647058819</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19">
-        <v>99.985588235294117</v>
+        <v>61.153823529411767</v>
       </c>
       <c r="J19">
-        <v>33.684412984556907</v>
+        <v>28.166182284451839</v>
       </c>
       <c r="K19">
-        <v>105.8326470588235</v>
+        <v>67.163235294117655</v>
       </c>
       <c r="L19">
-        <v>48.167479372680972</v>
+        <v>41.377048674439322</v>
       </c>
       <c r="M19">
-        <v>23.764705882352938</v>
+        <v>24.794117647058819</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9966,37 +9963,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>137.25416666666669</v>
+        <v>68.381944444444429</v>
       </c>
       <c r="C20">
-        <v>18.380561758012821</v>
+        <v>6.8231729736986981</v>
       </c>
       <c r="D20">
-        <v>213.23805555555549</v>
+        <v>108.4469444444444</v>
       </c>
       <c r="E20">
-        <v>28.526312565153159</v>
+        <v>12.047201147087859</v>
       </c>
       <c r="F20">
-        <v>23.977777777777781</v>
+        <v>25.233333333333331</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
       <c r="I20">
-        <v>120.8879166666667</v>
+        <v>56.33</v>
       </c>
       <c r="J20">
-        <v>52.110211433354003</v>
+        <v>1.898511762823778</v>
       </c>
       <c r="K20">
-        <v>136.57458333333341</v>
+        <v>59.727499999999999</v>
       </c>
       <c r="L20">
-        <v>89.944275228784448</v>
+        <v>2.06264541200833</v>
       </c>
       <c r="M20">
-        <v>23.977777777777781</v>
+        <v>25.233333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -10004,37 +10001,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>143.82526315789471</v>
+        <v>63.181315789473693</v>
       </c>
       <c r="C21">
-        <v>16.597077772358531</v>
+        <v>6.0383423949057704</v>
       </c>
       <c r="D21">
-        <v>224.5667105263158</v>
+        <v>100.5718421052632</v>
       </c>
       <c r="E21">
-        <v>25.944771952600341</v>
+        <v>10.863460926898449</v>
       </c>
       <c r="F21">
-        <v>24.147368421052629</v>
+        <v>23.068421052631582</v>
       </c>
       <c r="H21" t="s">
         <v>26</v>
       </c>
       <c r="I21">
-        <v>115.38552631578951</v>
+        <v>54.187105263157903</v>
       </c>
       <c r="J21">
-        <v>47.154079611741658</v>
+        <v>22.298806843289821</v>
       </c>
       <c r="K21">
-        <v>127.7669736842105</v>
+        <v>58.251447368421047</v>
       </c>
       <c r="L21">
-        <v>80.988743446726218</v>
+        <v>32.149221879140569</v>
       </c>
       <c r="M21">
-        <v>24.147368421052629</v>
+        <v>23.068421052631582</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -10042,37 +10039,37 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>107.52800000000001</v>
+        <v>73.496499999999997</v>
       </c>
       <c r="C22">
-        <v>10.05235847948132</v>
+        <v>4.6453576557677456</v>
       </c>
       <c r="D22">
-        <v>167.322</v>
+        <v>117.156875</v>
       </c>
       <c r="E22">
-        <v>15.569599978804851</v>
+        <v>8.3671161166422809</v>
       </c>
       <c r="F22">
-        <v>22.6</v>
+        <v>25.965</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>122.51537500000001</v>
+        <v>62.084000000000003</v>
       </c>
       <c r="J22">
-        <v>72.080161108895794</v>
+        <v>2.224035521299065</v>
       </c>
       <c r="K22">
-        <v>139.33837500000001</v>
+        <v>66.964500000000001</v>
       </c>
       <c r="L22">
-        <v>106.36452961036581</v>
+        <v>2.6570248399290519</v>
       </c>
       <c r="M22">
-        <v>22.6</v>
+        <v>25.965</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10100,25 +10097,25 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>39.024999999999999</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.15811388300841894</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27">
-        <v>335.15</v>
+        <v>154.72499999999999</v>
       </c>
       <c r="H27">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="I27">
-        <v>101.30875629758808</v>
+        <v>59.838666643241851</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -10126,25 +10123,25 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>50.9</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>5.3722935941307801</v>
+        <v>0.6975230903263786</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28">
-        <v>489.9</v>
+        <v>125.5</v>
       </c>
       <c r="H28">
-        <v>671</v>
+        <v>255</v>
       </c>
       <c r="I28">
-        <v>103.20400509024181</v>
+        <v>33.437273842992674</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -10152,25 +10149,25 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>78.375</v>
+        <v>46.85</v>
       </c>
       <c r="C29">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>13.951725378090018</v>
+        <v>4.1605596270521605</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>439.6</v>
+        <v>213.35</v>
       </c>
       <c r="H29">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="I29">
-        <v>90.872917744986978</v>
+        <v>51.703072368164882</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -10178,25 +10175,25 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>118.52500000000001</v>
+        <v>56.075000000000003</v>
       </c>
       <c r="C30">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>30.123666051964122</v>
+        <v>7.4019661282731102</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30">
-        <v>506.95</v>
+        <v>231.4</v>
       </c>
       <c r="H30">
-        <v>742</v>
+        <v>342</v>
       </c>
       <c r="I30">
-        <v>83.039672322855353</v>
+        <v>48.192349642890065</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -10204,25 +10201,25 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>121.4</v>
+        <v>54.6</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>24.370852704377434</v>
+        <v>7.9704582759214846</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>437.4</v>
+        <v>198.5</v>
       </c>
       <c r="H31">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="I31">
-        <v>97.230838201857992</v>
+        <v>46.207447507173612</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -10230,25 +10227,25 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>100.575</v>
+        <v>95.2</v>
       </c>
       <c r="C32">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D32">
-        <v>19.710582215704637</v>
+        <v>26.165351918627842</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32">
-        <v>545.25</v>
+        <v>272.72500000000002</v>
       </c>
       <c r="H32">
-        <v>782</v>
+        <v>404</v>
       </c>
       <c r="I32">
-        <v>94.34273306435044</v>
+        <v>41.987169896260433</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -10256,25 +10253,25 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>275.35000000000002</v>
+        <v>122.35</v>
       </c>
       <c r="C33">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="D33">
-        <v>55.236809540424495</v>
+        <v>32.032475508138397</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33">
-        <v>544.9</v>
+        <v>236.625</v>
       </c>
       <c r="H33">
-        <v>709</v>
+        <v>352</v>
       </c>
       <c r="I33">
-        <v>67.336811283622154</v>
+        <v>45.742695928084856</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -10282,25 +10279,25 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>318.45</v>
+        <v>112.02500000000001</v>
       </c>
       <c r="C34">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="D34">
-        <v>52.229743957309914</v>
+        <v>25.985683928478167</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
       </c>
       <c r="G34">
-        <v>571.67499999999995</v>
+        <v>234.35</v>
       </c>
       <c r="H34">
-        <v>737</v>
+        <v>360</v>
       </c>
       <c r="I34">
-        <v>84.328535639348871</v>
+        <v>49.306238228089668</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -10308,25 +10305,25 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>334.52499999999998</v>
+        <v>172.72499999999999</v>
       </c>
       <c r="C35">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D35">
-        <v>48.453513275282106</v>
+        <v>39.83812598568467</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35">
-        <v>601.25</v>
+        <v>241.97499999999999</v>
       </c>
       <c r="H35">
-        <v>749</v>
+        <v>347</v>
       </c>
       <c r="I35">
-        <v>88.49735618244226</v>
+        <v>50.429685752820305</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -10334,25 +10331,25 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>344.17500000000001</v>
+        <v>192.72499999999999</v>
       </c>
       <c r="C36">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="D36">
-        <v>60.361257527129268</v>
+        <v>43.594275971002197</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>590.9</v>
+        <v>229.85</v>
       </c>
       <c r="H36">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="I36">
-        <v>82.545651704887561</v>
+        <v>52.576952150499366</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -10360,25 +10357,25 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>346.22500000000002</v>
+        <v>156.25</v>
       </c>
       <c r="C37">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="D37">
-        <v>53.134318187314307</v>
+        <v>24.307590879372935</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37">
-        <v>558.25</v>
+        <v>221.875</v>
       </c>
       <c r="H37">
-        <v>775</v>
+        <v>348</v>
       </c>
       <c r="I37">
-        <v>158.15664905727371</v>
+        <v>44.194899055932943</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -10386,25 +10383,25 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>416.625</v>
+        <v>219.42500000000001</v>
       </c>
       <c r="C38">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="D38">
-        <v>56.677987179938128</v>
+        <v>58.348153794974941</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38">
-        <v>588.17499999999995</v>
+        <v>250.95</v>
       </c>
       <c r="H38">
-        <v>742</v>
+        <v>335</v>
       </c>
       <c r="I38">
-        <v>108.77284905852059</v>
+        <v>43.586606976137809</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -10412,25 +10409,25 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>507.55</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="C39">
-        <v>680</v>
+        <v>358</v>
       </c>
       <c r="D39">
-        <v>70.053807158754097</v>
+        <v>42.633079729002567</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
       </c>
       <c r="G39">
-        <v>567.875</v>
+        <v>258.07499999999999</v>
       </c>
       <c r="H39">
-        <v>741</v>
+        <v>354</v>
       </c>
       <c r="I39">
-        <v>131.31644838094203</v>
+        <v>42.796709375059791</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -10438,25 +10435,25 @@
         <v>22</v>
       </c>
       <c r="B40">
-        <v>496.2</v>
+        <v>255.72499999999999</v>
       </c>
       <c r="C40">
-        <v>685</v>
+        <v>415</v>
       </c>
       <c r="D40">
-        <v>72.11038546775147</v>
+        <v>52.348921816830362</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
       <c r="G40">
-        <v>564.65</v>
+        <v>263.5</v>
       </c>
       <c r="H40">
-        <v>836</v>
+        <v>335</v>
       </c>
       <c r="I40">
-        <v>163.26234197662453</v>
+        <v>31.57814888779086</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,25 +10461,25 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>503.75</v>
+        <v>254.6</v>
       </c>
       <c r="C41">
-        <v>634</v>
+        <v>359</v>
       </c>
       <c r="D41">
-        <v>66.852976843372602</v>
+        <v>33.0607831821236</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41">
-        <v>619.85</v>
+        <v>257.14999999999998</v>
       </c>
       <c r="H41">
-        <v>976</v>
+        <v>372</v>
       </c>
       <c r="I41">
-        <v>166.07436548665439</v>
+        <v>43.823977747815498</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10490,25 +10487,25 @@
         <v>23</v>
       </c>
       <c r="B42">
-        <v>721.65</v>
+        <v>269.42500000000001</v>
       </c>
       <c r="C42">
-        <v>945</v>
+        <v>397</v>
       </c>
       <c r="D42">
-        <v>85.44290341268713</v>
+        <v>53.924870576262528</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
       <c r="G42">
-        <v>581.22500000000002</v>
+        <v>293.32499999999999</v>
       </c>
       <c r="H42">
-        <v>795</v>
+        <v>409</v>
       </c>
       <c r="I42">
-        <v>185.49179088892177</v>
+        <v>44.067772688707414</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -10516,25 +10513,25 @@
         <v>24</v>
       </c>
       <c r="B43">
-        <v>644.27499999999998</v>
+        <v>315.55</v>
       </c>
       <c r="C43">
-        <v>833</v>
+        <v>536</v>
       </c>
       <c r="D43">
-        <v>72.837010703385673</v>
+        <v>54.39831728166709</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43">
-        <v>621.07500000000005</v>
+        <v>313.125</v>
       </c>
       <c r="H43">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="I43">
-        <v>107.56211979774582</v>
+        <v>135.31069423500483</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10542,25 +10539,25 @@
         <v>25</v>
       </c>
       <c r="B44">
-        <v>718.97500000000002</v>
+        <v>380.4</v>
       </c>
       <c r="C44">
-        <v>972</v>
+        <v>598</v>
       </c>
       <c r="D44">
-        <v>105.3306119820485</v>
+        <v>76.053894520891319</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44">
-        <v>604.54999999999995</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="H44">
-        <v>816</v>
+        <v>419</v>
       </c>
       <c r="I44">
-        <v>165.68149084993297</v>
+        <v>48.639859142845999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -10568,25 +10565,25 @@
         <v>26</v>
       </c>
       <c r="B45">
-        <v>761.95</v>
+        <v>351.32499999999999</v>
       </c>
       <c r="C45">
-        <v>984</v>
+        <v>495</v>
       </c>
       <c r="D45">
-        <v>113.16970465315359</v>
+        <v>57.504687657304181</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45">
-        <v>650.27499999999998</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="H45">
-        <v>886</v>
+        <v>542</v>
       </c>
       <c r="I45">
-        <v>146.89189946421541</v>
+        <v>57.142444595580415</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -10594,30 +10591,30 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>626.17499999999995</v>
+        <v>381.6</v>
       </c>
       <c r="C46">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="D46">
-        <v>65.487085240781198</v>
+        <v>57.821032461136369</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>590.5</v>
+        <v>308.22500000000002</v>
       </c>
       <c r="H46">
-        <v>764</v>
+        <v>417</v>
       </c>
       <c r="I46">
-        <v>208.5606349758709</v>
+        <v>47.342444500490821</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -10626,7 +10623,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -10640,25 +10637,25 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>39.024999999999999</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.15811388300841894</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51">
-        <v>335.15</v>
+        <v>154.72499999999999</v>
       </c>
       <c r="H51">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="I51">
-        <v>101.30875629758808</v>
+        <v>59.838666643241851</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -10666,25 +10663,25 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>50.9</v>
+        <v>46.225000000000001</v>
       </c>
       <c r="C52">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>5.3722935941307801</v>
+        <v>0.6975230903263786</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52">
-        <v>489.9</v>
+        <v>125.5</v>
       </c>
       <c r="H52">
-        <v>671</v>
+        <v>255</v>
       </c>
       <c r="I52">
-        <v>103.20400509024181</v>
+        <v>33.437273842992674</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10692,25 +10689,25 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>78.375</v>
+        <v>46.85</v>
       </c>
       <c r="C53">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>13.951725378090018</v>
+        <v>4.1605596270521605</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>439.6</v>
+        <v>213.35</v>
       </c>
       <c r="H53">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="I53">
-        <v>90.872917744986978</v>
+        <v>51.703072368164882</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -10718,25 +10715,25 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>118.52500000000001</v>
+        <v>56.075000000000003</v>
       </c>
       <c r="C54">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>30.123666051964122</v>
+        <v>7.4019661282731102</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54">
-        <v>506.95</v>
+        <v>231.4</v>
       </c>
       <c r="H54">
-        <v>742</v>
+        <v>342</v>
       </c>
       <c r="I54">
-        <v>83.039672322855353</v>
+        <v>48.192349642890065</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -10744,25 +10741,25 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>121.4</v>
+        <v>54.6</v>
       </c>
       <c r="C55">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>24.370852704377434</v>
+        <v>7.9704582759214846</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>437.4</v>
+        <v>198.5</v>
       </c>
       <c r="H55">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="I55">
-        <v>97.230838201857992</v>
+        <v>46.207447507173612</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -10770,25 +10767,25 @@
         <v>15</v>
       </c>
       <c r="B56">
-        <v>100.575</v>
+        <v>95.2</v>
       </c>
       <c r="C56">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D56">
-        <v>19.710582215704637</v>
+        <v>26.165351918627842</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56">
-        <v>545.25</v>
+        <v>272.72500000000002</v>
       </c>
       <c r="H56">
-        <v>782</v>
+        <v>404</v>
       </c>
       <c r="I56">
-        <v>94.34273306435044</v>
+        <v>41.987169896260433</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -10796,25 +10793,25 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>275.35000000000002</v>
+        <v>122.35</v>
       </c>
       <c r="C57">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>55.236809540424495</v>
+        <v>32.032475508138397</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57">
-        <v>544.9</v>
+        <v>236.625</v>
       </c>
       <c r="H57">
-        <v>709</v>
+        <v>352</v>
       </c>
       <c r="I57">
-        <v>67.336811283622154</v>
+        <v>45.742695928084856</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -10822,25 +10819,25 @@
         <v>17</v>
       </c>
       <c r="B58">
-        <v>318.45</v>
+        <v>112.02500000000001</v>
       </c>
       <c r="C58">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="D58">
-        <v>52.229743957309914</v>
+        <v>25.985683928478167</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58">
-        <v>571.67499999999995</v>
+        <v>234.35</v>
       </c>
       <c r="H58">
-        <v>737</v>
+        <v>360</v>
       </c>
       <c r="I58">
-        <v>84.328535639348871</v>
+        <v>49.306238228089668</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -10848,25 +10845,25 @@
         <v>18</v>
       </c>
       <c r="B59">
-        <v>334.52499999999998</v>
+        <v>172.72499999999999</v>
       </c>
       <c r="C59">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D59">
-        <v>48.453513275282106</v>
+        <v>39.83812598568467</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
       </c>
       <c r="G59">
-        <v>601.25</v>
+        <v>241.97499999999999</v>
       </c>
       <c r="H59">
-        <v>749</v>
+        <v>347</v>
       </c>
       <c r="I59">
-        <v>88.49735618244226</v>
+        <v>50.429685752820305</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -10874,25 +10871,25 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>344.17500000000001</v>
+        <v>192.72499999999999</v>
       </c>
       <c r="C60">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="D60">
-        <v>60.361257527129268</v>
+        <v>43.594275971002197</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>590.9</v>
+        <v>229.85</v>
       </c>
       <c r="H60">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="I60">
-        <v>82.545651704887561</v>
+        <v>52.576952150499366</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -10900,25 +10897,25 @@
         <v>19</v>
       </c>
       <c r="B61">
-        <v>346.22500000000002</v>
+        <v>156.25</v>
       </c>
       <c r="C61">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="D61">
-        <v>53.134318187314307</v>
+        <v>24.307590879372935</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61">
-        <v>629.54999999999995</v>
+        <v>221.875</v>
       </c>
       <c r="H61">
-        <v>1000</v>
+        <v>348</v>
       </c>
       <c r="I61">
-        <v>122.00251153362717</v>
+        <v>44.194899055932943</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -10926,25 +10923,25 @@
         <v>20</v>
       </c>
       <c r="B62">
-        <v>416.625</v>
+        <v>219.42500000000001</v>
       </c>
       <c r="C62">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="D62">
-        <v>56.677987179938128</v>
+        <v>58.348153794974941</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62">
-        <v>612.02499999999998</v>
+        <v>250.95</v>
       </c>
       <c r="H62">
-        <v>1000</v>
+        <v>335</v>
       </c>
       <c r="I62">
-        <v>89.775071492806134</v>
+        <v>43.586606976137809</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -10952,25 +10949,25 @@
         <v>21</v>
       </c>
       <c r="B63">
-        <v>507.55</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="C63">
-        <v>680</v>
+        <v>358</v>
       </c>
       <c r="D63">
-        <v>70.053807158754097</v>
+        <v>42.633079729002567</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63">
-        <v>614.6</v>
+        <v>258.07499999999999</v>
       </c>
       <c r="H63">
-        <v>1000</v>
+        <v>354</v>
       </c>
       <c r="I63">
-        <v>107.82340738210405</v>
+        <v>42.796709375059791</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -10978,25 +10975,25 @@
         <v>22</v>
       </c>
       <c r="B64">
-        <v>496.2</v>
+        <v>255.72499999999999</v>
       </c>
       <c r="C64">
-        <v>685</v>
+        <v>415</v>
       </c>
       <c r="D64">
-        <v>72.11038546775147</v>
+        <v>52.348921816830362</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
       </c>
       <c r="G64">
-        <v>635.375</v>
+        <v>263.5</v>
       </c>
       <c r="H64">
-        <v>1000</v>
+        <v>335</v>
       </c>
       <c r="I64">
-        <v>127.58681056742985</v>
+        <v>31.57814888779086</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -11004,25 +11001,25 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>503.75</v>
+        <v>254.6</v>
       </c>
       <c r="C65">
-        <v>634</v>
+        <v>359</v>
       </c>
       <c r="D65">
-        <v>66.852976843372602</v>
+        <v>33.0607831821236</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>667.2</v>
+        <v>257.14999999999998</v>
       </c>
       <c r="H65">
-        <v>1000</v>
+        <v>372</v>
       </c>
       <c r="I65">
-        <v>127.31511481964121</v>
+        <v>43.823977747815498</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -11030,25 +11027,25 @@
         <v>23</v>
       </c>
       <c r="B66">
-        <v>729.82500000000005</v>
+        <v>269.42500000000001</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>397</v>
       </c>
       <c r="D66">
-        <v>95.696873860469594</v>
+        <v>53.924870576262528</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
       </c>
       <c r="G66">
-        <v>674.42499999999995</v>
+        <v>293.32499999999999</v>
       </c>
       <c r="H66">
-        <v>1000</v>
+        <v>409</v>
       </c>
       <c r="I66">
-        <v>128.28851448480458</v>
+        <v>44.067772688707414</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -11056,25 +11053,25 @@
         <v>24</v>
       </c>
       <c r="B67">
-        <v>644.27499999999998</v>
+        <v>315.55</v>
       </c>
       <c r="C67">
-        <v>833</v>
+        <v>536</v>
       </c>
       <c r="D67">
-        <v>72.837010703385673</v>
+        <v>54.39831728166709</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="G67">
-        <v>643.57500000000005</v>
+        <v>319.67500000000001</v>
       </c>
       <c r="H67">
         <v>1000</v>
       </c>
       <c r="I67">
-        <v>88.147570759319507</v>
+        <v>163.12436462200651</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,25 +11079,25 @@
         <v>25</v>
       </c>
       <c r="B68">
-        <v>718.97500000000002</v>
+        <v>380.4</v>
       </c>
       <c r="C68">
-        <v>972</v>
+        <v>598</v>
       </c>
       <c r="D68">
-        <v>105.3306119820485</v>
+        <v>76.053894520891319</v>
       </c>
       <c r="F68" t="s">
         <v>25</v>
       </c>
       <c r="G68">
-        <v>673.1</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="H68">
-        <v>1000</v>
+        <v>419</v>
       </c>
       <c r="I68">
-        <v>118.13894470668973</v>
+        <v>48.639859142845999</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -11108,25 +11105,25 @@
         <v>26</v>
       </c>
       <c r="B69">
-        <v>761.95</v>
+        <v>351.32499999999999</v>
       </c>
       <c r="C69">
-        <v>984</v>
+        <v>495</v>
       </c>
       <c r="D69">
-        <v>113.16970465315359</v>
+        <v>57.504687657304181</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
       </c>
       <c r="G69">
-        <v>695.625</v>
+        <v>308.60000000000002</v>
       </c>
       <c r="H69">
         <v>1000</v>
       </c>
       <c r="I69">
-        <v>99.015587350990046</v>
+        <v>119.41605784732167</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -11134,25 +11131,25 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>626.17499999999995</v>
+        <v>381.6</v>
       </c>
       <c r="C70">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="D70">
-        <v>65.487085240781198</v>
+        <v>57.821032461136369</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70">
-        <v>707.3</v>
+        <v>308.22500000000002</v>
       </c>
       <c r="H70">
-        <v>1000</v>
+        <v>417</v>
       </c>
       <c r="I70">
-        <v>125.18769497981395</v>
+        <v>47.342444500490821</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -11452,13 +11449,13 @@
         <v>19</v>
       </c>
       <c r="G86">
-        <v>106.55</v>
+        <v>110</v>
       </c>
       <c r="H86">
         <v>110</v>
       </c>
       <c r="I86">
-        <v>12.272441505781199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -11478,13 +11475,13 @@
         <v>20</v>
       </c>
       <c r="G87">
-        <v>118.5</v>
+        <v>120</v>
       </c>
       <c r="H87">
         <v>120</v>
       </c>
       <c r="I87">
-        <v>9.4868329805051381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -11504,13 +11501,13 @@
         <v>21</v>
       </c>
       <c r="G88">
-        <v>126.8</v>
+        <v>130</v>
       </c>
       <c r="H88">
         <v>130</v>
       </c>
       <c r="I88">
-        <v>14.214835154216143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -11530,13 +11527,13 @@
         <v>22</v>
       </c>
       <c r="G89">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H89">
         <v>140</v>
       </c>
       <c r="I89">
-        <v>14.284651975154384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -11556,13 +11553,13 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>147.125</v>
+        <v>150</v>
       </c>
       <c r="H90">
         <v>150</v>
       </c>
       <c r="I90">
-        <v>12.912302819503735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -11570,25 +11567,25 @@
         <v>23</v>
       </c>
       <c r="B91">
-        <v>159.94999999999999</v>
+        <v>160</v>
       </c>
       <c r="C91">
         <v>160</v>
       </c>
       <c r="D91">
-        <v>0.316227766016838</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91">
-        <v>151.02500000000001</v>
+        <v>160</v>
       </c>
       <c r="H91">
         <v>160</v>
       </c>
       <c r="I91">
-        <v>27.272121108259789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -11608,13 +11605,13 @@
         <v>24</v>
       </c>
       <c r="G92">
-        <v>168.35</v>
+        <v>168.375</v>
       </c>
       <c r="H92">
         <v>170</v>
       </c>
       <c r="I92">
-        <v>10.435516278555646</v>
+        <v>7.1814843833791038</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -11634,13 +11631,13 @@
         <v>25</v>
       </c>
       <c r="G93">
-        <v>174.15</v>
+        <v>180</v>
       </c>
       <c r="H93">
         <v>180</v>
       </c>
       <c r="I93">
-        <v>21.015928025410467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -11660,13 +11657,13 @@
         <v>26</v>
       </c>
       <c r="G94">
-        <v>185.57499999999999</v>
+        <v>188.97499999999999</v>
       </c>
       <c r="H94">
         <v>190</v>
       </c>
       <c r="I94">
-        <v>19.607543681725328</v>
+        <v>6.4826692033451785</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -11686,13 +11683,13 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>189.8</v>
+        <v>200</v>
       </c>
       <c r="H95">
         <v>200</v>
       </c>
       <c r="I95">
-        <v>27.342274960214954</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
